--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.0210415566062</v>
+        <v>689.636010861386</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.3941895205057</v>
+        <v>943.5904146540882</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.4744633627945</v>
+        <v>853.5354698169658</v>
       </c>
       <c r="AD2" t="n">
-        <v>612021.0415566062</v>
+        <v>689636.010861386</v>
       </c>
       <c r="AE2" t="n">
-        <v>837394.1895205057</v>
+        <v>943590.4146540882</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841551646794487e-06</v>
+        <v>2.654899476129476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>757474.4633627945</v>
+        <v>853535.4698169659</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.6546142940686</v>
+        <v>366.3694802123979</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.5243248590155</v>
+        <v>501.2828859073377</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.4356875391552</v>
+        <v>453.4411508312899</v>
       </c>
       <c r="AD3" t="n">
-        <v>314654.6142940686</v>
+        <v>366369.4802123979</v>
       </c>
       <c r="AE3" t="n">
-        <v>430524.3248590155</v>
+        <v>501282.8859073378</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852238960551855e-06</v>
+        <v>4.111971410275774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.654296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>389435.6875391552</v>
+        <v>453441.1508312899</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.839179255775</v>
+        <v>307.8354260326003</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.3646489377344</v>
+        <v>421.1940106383208</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.7810754250952</v>
+        <v>380.9958454125053</v>
       </c>
       <c r="AD4" t="n">
-        <v>264839.179255775</v>
+        <v>307835.4260326003</v>
       </c>
       <c r="AE4" t="n">
-        <v>362364.6489377344</v>
+        <v>421194.0106383208</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229344370276197e-06</v>
+        <v>4.655630859884725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.410807291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>327781.0754250952</v>
+        <v>380995.8454125053</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.3645272657867</v>
+        <v>282.4460253886355</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.5091062225506</v>
+        <v>386.4551125759445</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.2520967866852</v>
+        <v>349.5723790248526</v>
       </c>
       <c r="AD5" t="n">
-        <v>239364.5272657867</v>
+        <v>282446.0253886355</v>
       </c>
       <c r="AE5" t="n">
-        <v>327509.1062225506</v>
+        <v>386455.1125759445</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.42522630877624e-06</v>
+        <v>4.938026880008415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>296252.0967866852</v>
+        <v>349572.3790248526</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.4199212071226</v>
+        <v>264.038733243631</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.9024574880376</v>
+        <v>361.2694433907332</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.9440475103383</v>
+        <v>326.7903947583691</v>
       </c>
       <c r="AD6" t="n">
-        <v>229419.9212071226</v>
+        <v>264038.733243631</v>
       </c>
       <c r="AE6" t="n">
-        <v>313902.4574880375</v>
+        <v>361269.4433907332</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.549029669334418e-06</v>
+        <v>5.116509779285827e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.564453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>283944.0475103383</v>
+        <v>326790.3947583691</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>222.9599040565706</v>
+        <v>257.4081238924834</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.063577026814</v>
+        <v>352.1971511544872</v>
       </c>
       <c r="AC7" t="n">
-        <v>275.9487373948845</v>
+        <v>318.5839493602143</v>
       </c>
       <c r="AD7" t="n">
-        <v>222959.9040565706</v>
+        <v>257408.1238924834</v>
       </c>
       <c r="AE7" t="n">
-        <v>305063.577026814</v>
+        <v>352197.1511544872</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.633059099577524e-06</v>
+        <v>5.237652018614387e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>275948.7373948845</v>
+        <v>318583.9493602143</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>217.553292624997</v>
+        <v>252.00151246091</v>
       </c>
       <c r="AB8" t="n">
-        <v>297.6660127432766</v>
+        <v>344.7995868709497</v>
       </c>
       <c r="AC8" t="n">
-        <v>269.2571862640189</v>
+        <v>311.8923982293487</v>
       </c>
       <c r="AD8" t="n">
-        <v>217553.292624997</v>
+        <v>252001.51246091</v>
       </c>
       <c r="AE8" t="n">
-        <v>297666.0127432766</v>
+        <v>344799.5868709497</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.702243330477682e-06</v>
+        <v>5.337392462328235e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>269257.1862640189</v>
+        <v>311892.3982293487</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>214.0662305127344</v>
+        <v>248.5144503486473</v>
       </c>
       <c r="AB9" t="n">
-        <v>292.8948605229581</v>
+        <v>340.0284346506314</v>
       </c>
       <c r="AC9" t="n">
-        <v>264.941386115252</v>
+        <v>307.5765980805817</v>
       </c>
       <c r="AD9" t="n">
-        <v>214066.2305127344</v>
+        <v>248514.4503486473</v>
       </c>
       <c r="AE9" t="n">
-        <v>292894.8605229582</v>
+        <v>340028.4346506314</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.745658536103287e-06</v>
+        <v>5.399982619314658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.115234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>264941.386115252</v>
+        <v>307576.5980805818</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>211.2689955984691</v>
+        <v>245.717215434382</v>
       </c>
       <c r="AB10" t="n">
-        <v>289.0675603079674</v>
+        <v>336.2011344356405</v>
       </c>
       <c r="AC10" t="n">
-        <v>261.4793580611291</v>
+        <v>304.1145700264589</v>
       </c>
       <c r="AD10" t="n">
-        <v>211268.9955984691</v>
+        <v>245717.215434382</v>
       </c>
       <c r="AE10" t="n">
-        <v>289067.5603079674</v>
+        <v>336201.1344356405</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.780857530771789e-06</v>
+        <v>5.450727757344511e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.037109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>261479.3580611291</v>
+        <v>304114.5700264589</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>200.4702964882999</v>
+        <v>243.4664537565735</v>
       </c>
       <c r="AB11" t="n">
-        <v>274.2923037804595</v>
+        <v>333.1215430114673</v>
       </c>
       <c r="AC11" t="n">
-        <v>248.1142312793991</v>
+        <v>301.328890485574</v>
       </c>
       <c r="AD11" t="n">
-        <v>200470.2964882998</v>
+        <v>243466.4537565735</v>
       </c>
       <c r="AE11" t="n">
-        <v>274292.3037804595</v>
+        <v>333121.5430114673</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.803825575038238e-06</v>
+        <v>5.48383996942765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.991536458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>248114.2312793991</v>
+        <v>301328.890485574</v>
       </c>
     </row>
     <row r="12">
@@ -6762,28 +6762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>197.9618952950359</v>
+        <v>240.9580525633095</v>
       </c>
       <c r="AB12" t="n">
-        <v>270.860198604987</v>
+        <v>329.6894378359947</v>
       </c>
       <c r="AC12" t="n">
-        <v>245.0096814048827</v>
+        <v>298.2243406110576</v>
       </c>
       <c r="AD12" t="n">
-        <v>197961.8952950359</v>
+        <v>240958.0525633095</v>
       </c>
       <c r="AE12" t="n">
-        <v>270860.1986049871</v>
+        <v>329689.4378359948</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.828100743775136e-06</v>
+        <v>5.518836616344791e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.939453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>245009.6814048828</v>
+        <v>298224.3406110576</v>
       </c>
     </row>
     <row r="13">
@@ -6868,28 +6868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>195.7949561519697</v>
+        <v>230.3284273339032</v>
       </c>
       <c r="AB13" t="n">
-        <v>267.8952968708374</v>
+        <v>315.1455156511598</v>
       </c>
       <c r="AC13" t="n">
-        <v>242.3277457309737</v>
+        <v>285.0684699470156</v>
       </c>
       <c r="AD13" t="n">
-        <v>195794.9561519697</v>
+        <v>230328.4273339032</v>
       </c>
       <c r="AE13" t="n">
-        <v>267895.2968708374</v>
+        <v>315145.5156511598</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.851255520108792e-06</v>
+        <v>5.552218033404216e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>242327.7457309737</v>
+        <v>285068.4699470156</v>
       </c>
     </row>
     <row r="14">
@@ -6974,28 +6974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>194.0243572328262</v>
+        <v>228.5578284147597</v>
       </c>
       <c r="AB14" t="n">
-        <v>265.4726853163551</v>
+        <v>312.7229040966776</v>
       </c>
       <c r="AC14" t="n">
-        <v>240.1363448230938</v>
+        <v>282.8770690391358</v>
       </c>
       <c r="AD14" t="n">
-        <v>194024.3572328262</v>
+        <v>228557.8284147597</v>
       </c>
       <c r="AE14" t="n">
-        <v>265472.6853163551</v>
+        <v>312722.9040966776</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.863859934645257e-06</v>
+        <v>5.570389369303499e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>240136.3448230938</v>
+        <v>282877.0690391358</v>
       </c>
     </row>
     <row r="15">
@@ -7080,28 +7080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>191.4911966438252</v>
+        <v>226.0246678257587</v>
       </c>
       <c r="AB15" t="n">
-        <v>262.0067032433279</v>
+        <v>309.2569220236502</v>
       </c>
       <c r="AC15" t="n">
-        <v>237.0011512145787</v>
+        <v>279.7418754306207</v>
       </c>
       <c r="AD15" t="n">
-        <v>191491.1966438252</v>
+        <v>226024.6678257587</v>
       </c>
       <c r="AE15" t="n">
-        <v>262006.7032433279</v>
+        <v>309256.9220236503</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.889535593886206e-06</v>
+        <v>5.607405053542782e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH15" t="n">
-        <v>237001.1512145787</v>
+        <v>279741.8754306207</v>
       </c>
     </row>
     <row r="16">
@@ -7186,28 +7186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>189.751869033732</v>
+        <v>224.2853402156655</v>
       </c>
       <c r="AB16" t="n">
-        <v>259.6268784734808</v>
+        <v>306.8770972538032</v>
       </c>
       <c r="AC16" t="n">
-        <v>234.8484535806601</v>
+        <v>277.5891777967021</v>
       </c>
       <c r="AD16" t="n">
-        <v>189751.869033732</v>
+        <v>224285.3402156655</v>
       </c>
       <c r="AE16" t="n">
-        <v>259626.8784734808</v>
+        <v>306877.0972538032</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.902140008422673e-06</v>
+        <v>5.625576389442067e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.789713541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>234848.4535806601</v>
+        <v>277589.1777967021</v>
       </c>
     </row>
     <row r="17">
@@ -7292,28 +7292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>188.1829633824969</v>
+        <v>222.7164345644304</v>
       </c>
       <c r="AB17" t="n">
-        <v>257.4802325462298</v>
+        <v>304.7304513265522</v>
       </c>
       <c r="AC17" t="n">
-        <v>232.9066805278687</v>
+        <v>275.6474047439107</v>
       </c>
       <c r="AD17" t="n">
-        <v>188182.9633824969</v>
+        <v>222716.4345644304</v>
       </c>
       <c r="AE17" t="n">
-        <v>257480.2325462298</v>
+        <v>304730.4513265522</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.914464324858328e-06</v>
+        <v>5.643343917876922e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.763671875</v>
       </c>
       <c r="AH17" t="n">
-        <v>232906.6805278687</v>
+        <v>275647.4047439107</v>
       </c>
     </row>
     <row r="18">
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>187.5186622377872</v>
+        <v>222.0521334197207</v>
       </c>
       <c r="AB18" t="n">
-        <v>256.5713064131403</v>
+        <v>303.8215251934627</v>
       </c>
       <c r="AC18" t="n">
-        <v>232.0845010292351</v>
+        <v>274.8252252452771</v>
       </c>
       <c r="AD18" t="n">
-        <v>187518.6622377872</v>
+        <v>222052.1334197207</v>
       </c>
       <c r="AE18" t="n">
-        <v>256571.3064131403</v>
+        <v>303821.5251934627</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.911756709883829e-06</v>
+        <v>5.63944044572078e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.770182291666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>232084.5010292351</v>
+        <v>274825.2252452771</v>
       </c>
     </row>
     <row r="19">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>185.5420721373281</v>
+        <v>220.0755433192616</v>
       </c>
       <c r="AB19" t="n">
-        <v>253.8668486366926</v>
+        <v>301.117067417015</v>
       </c>
       <c r="AC19" t="n">
-        <v>229.6381529072404</v>
+        <v>272.3788771232824</v>
       </c>
       <c r="AD19" t="n">
-        <v>185542.0721373281</v>
+        <v>220075.5433192616</v>
       </c>
       <c r="AE19" t="n">
-        <v>253866.8486366926</v>
+        <v>301117.067417015</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.925948346991554e-06</v>
+        <v>5.659900023918492e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.740885416666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>229638.1529072404</v>
+        <v>272378.8771232824</v>
       </c>
     </row>
     <row r="20">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>184.2935644901149</v>
+        <v>218.8270356720483</v>
       </c>
       <c r="AB20" t="n">
-        <v>252.1585853935063</v>
+        <v>299.4088041738286</v>
       </c>
       <c r="AC20" t="n">
-        <v>228.0929239104207</v>
+        <v>270.8336481264627</v>
       </c>
       <c r="AD20" t="n">
-        <v>184293.5644901149</v>
+        <v>218827.0356720483</v>
       </c>
       <c r="AE20" t="n">
-        <v>252158.5853935063</v>
+        <v>299408.8041738286</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.937339003091175e-06</v>
+        <v>5.67632152747192e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.718098958333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>228092.9239104207</v>
+        <v>270833.6481264627</v>
       </c>
     </row>
     <row r="21">
@@ -7716,28 +7716,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>182.9884829331734</v>
+        <v>217.5219541151068</v>
       </c>
       <c r="AB21" t="n">
-        <v>250.372915231165</v>
+        <v>297.6231340114874</v>
       </c>
       <c r="AC21" t="n">
-        <v>226.4776756021689</v>
+        <v>269.218399818211</v>
       </c>
       <c r="AD21" t="n">
-        <v>182988.4829331734</v>
+        <v>217521.9541151068</v>
       </c>
       <c r="AE21" t="n">
-        <v>250372.915231165</v>
+        <v>297623.1340114874</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.937058904990364e-06</v>
+        <v>5.675917720007491e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.718098958333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>226477.6756021689</v>
+        <v>269218.399818211</v>
       </c>
     </row>
     <row r="22">
@@ -7822,28 +7822,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>183.2483645111986</v>
+        <v>217.7818356931322</v>
       </c>
       <c r="AB22" t="n">
-        <v>250.7284966713851</v>
+        <v>297.9787154517075</v>
       </c>
       <c r="AC22" t="n">
-        <v>226.7993208487962</v>
+        <v>269.5400450648382</v>
       </c>
       <c r="AD22" t="n">
-        <v>183248.3645111987</v>
+        <v>217781.8356931322</v>
       </c>
       <c r="AE22" t="n">
-        <v>250728.4966713851</v>
+        <v>297978.7154517075</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.934444656049468e-06</v>
+        <v>5.672148850339491e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH22" t="n">
-        <v>226799.3208487963</v>
+        <v>269540.0450648383</v>
       </c>
     </row>
     <row r="23">
@@ -7928,28 +7928,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>183.572626817677</v>
+        <v>218.1060979996105</v>
       </c>
       <c r="AB23" t="n">
-        <v>251.172166664552</v>
+        <v>298.4223854448744</v>
       </c>
       <c r="AC23" t="n">
-        <v>227.2006476005101</v>
+        <v>269.9413718165521</v>
       </c>
       <c r="AD23" t="n">
-        <v>183572.6268176771</v>
+        <v>218106.0979996105</v>
       </c>
       <c r="AE23" t="n">
-        <v>251172.1666645519</v>
+        <v>298422.3854448744</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.935751780519915e-06</v>
+        <v>5.67403328517349e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>227200.6476005101</v>
+        <v>269941.3718165521</v>
       </c>
     </row>
   </sheetData>
@@ -8225,28 +8225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.8447610545966</v>
+        <v>506.0134677854775</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.4467625393648</v>
+        <v>692.3499503627596</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.1409662549311</v>
+        <v>626.2730428193953</v>
       </c>
       <c r="AD2" t="n">
-        <v>438844.7610545966</v>
+        <v>506013.4677854775</v>
       </c>
       <c r="AE2" t="n">
-        <v>600446.7625393649</v>
+        <v>692349.9503627596</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.24678017052245e-06</v>
+        <v>3.289201648127536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.994140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>543140.9662549311</v>
+        <v>626273.0428193953</v>
       </c>
     </row>
     <row r="3">
@@ -8331,28 +8331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.4448266674532</v>
+        <v>301.5319444424683</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.9838577443522</v>
+        <v>412.5693090367211</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.1046965842039</v>
+        <v>373.1942732269176</v>
       </c>
       <c r="AD3" t="n">
-        <v>259444.8266674532</v>
+        <v>301531.9444424683</v>
       </c>
       <c r="AE3" t="n">
-        <v>354983.8577443522</v>
+        <v>412569.3090367211</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182793696123562e-06</v>
+        <v>4.659490237758865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.879557291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>321104.6965842039</v>
+        <v>373194.2732269176</v>
       </c>
     </row>
     <row r="4">
@@ -8437,28 +8437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.8661643847671</v>
+        <v>264.8679413052134</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.9353182723502</v>
+        <v>362.404002442668</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8327194759344</v>
+        <v>327.8166730867509</v>
       </c>
       <c r="AD4" t="n">
-        <v>222866.1643847671</v>
+        <v>264867.9413052134</v>
       </c>
       <c r="AE4" t="n">
-        <v>304935.3182723502</v>
+        <v>362404.002442668</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.519781745945281e-06</v>
+        <v>5.152828065560299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>275832.7194759344</v>
+        <v>327816.6730867509</v>
       </c>
     </row>
     <row r="5">
@@ -8543,28 +8543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.1363346942734</v>
+        <v>243.7207775682645</v>
       </c>
       <c r="AB5" t="n">
-        <v>287.5178036893752</v>
+        <v>333.4695200705974</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.0775080391177</v>
+        <v>301.6436571025697</v>
       </c>
       <c r="AD5" t="n">
-        <v>210136.3346942734</v>
+        <v>243720.7775682645</v>
       </c>
       <c r="AE5" t="n">
-        <v>287517.8036893752</v>
+        <v>333469.5200705974</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.700300709865256e-06</v>
+        <v>5.417101037804748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.49609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>260077.5080391177</v>
+        <v>301643.6571025697</v>
       </c>
     </row>
     <row r="6">
@@ -8649,28 +8649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.9651668817464</v>
+        <v>236.5496097557375</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.7058955186851</v>
+        <v>323.6576118999072</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.2020346131356</v>
+        <v>292.7681836765875</v>
       </c>
       <c r="AD6" t="n">
-        <v>202965.1668817464</v>
+        <v>236549.6097557375</v>
       </c>
       <c r="AE6" t="n">
-        <v>277705.8955186851</v>
+        <v>323657.6118999072</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.802778302545348e-06</v>
+        <v>5.567124378388674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>251202.0346131356</v>
+        <v>292768.1836765875</v>
       </c>
     </row>
     <row r="7">
@@ -8755,28 +8755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>197.4758216009427</v>
+        <v>231.0602644749338</v>
       </c>
       <c r="AB7" t="n">
-        <v>270.1951311326711</v>
+        <v>316.1468475138933</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.4080870386964</v>
+        <v>285.9742361021483</v>
       </c>
       <c r="AD7" t="n">
-        <v>197475.8216009427</v>
+        <v>231060.2644749338</v>
       </c>
       <c r="AE7" t="n">
-        <v>270195.1311326711</v>
+        <v>316146.8475138933</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.878887956675333e-06</v>
+        <v>5.67854604886948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.10546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>244408.0870386964</v>
+        <v>285974.2361021483</v>
       </c>
     </row>
     <row r="8">
@@ -8861,28 +8861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.2989552211945</v>
+        <v>227.2153912870658</v>
       </c>
       <c r="AB8" t="n">
-        <v>253.5342053464774</v>
+        <v>310.8861223944214</v>
       </c>
       <c r="AC8" t="n">
-        <v>229.3372566257755</v>
+        <v>281.2155872046031</v>
       </c>
       <c r="AD8" t="n">
-        <v>185298.9552211945</v>
+        <v>227215.3912870658</v>
       </c>
       <c r="AE8" t="n">
-        <v>253534.2053464774</v>
+        <v>310886.1223944214</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.930657975220601e-06</v>
+        <v>5.754335408485866e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.998046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>229337.2566257755</v>
+        <v>281215.5872046031</v>
       </c>
     </row>
     <row r="9">
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>181.7417995967039</v>
+        <v>215.4114938167155</v>
       </c>
       <c r="AB9" t="n">
-        <v>248.6671480904212</v>
+        <v>294.7355091242926</v>
       </c>
       <c r="AC9" t="n">
-        <v>224.9347044832779</v>
+        <v>266.6063657974421</v>
       </c>
       <c r="AD9" t="n">
-        <v>181741.7995967038</v>
+        <v>215411.4938167155</v>
       </c>
       <c r="AE9" t="n">
-        <v>248667.1480904212</v>
+        <v>294735.5091242926</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976632842436176e-06</v>
+        <v>5.821640884563104e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.906901041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>224934.7044832779</v>
+        <v>266606.3657974421</v>
       </c>
     </row>
     <row r="10">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.4373106842372</v>
+        <v>213.1070049042489</v>
       </c>
       <c r="AB10" t="n">
-        <v>245.5140446935104</v>
+        <v>291.5824057273818</v>
       </c>
       <c r="AC10" t="n">
-        <v>222.0825288491589</v>
+        <v>263.7541901633231</v>
       </c>
       <c r="AD10" t="n">
-        <v>179437.3106842372</v>
+        <v>213107.0049042489</v>
       </c>
       <c r="AE10" t="n">
-        <v>245514.0446935104</v>
+        <v>291582.4057273818</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.998654417489013e-06</v>
+        <v>5.853879642011864e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.861328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>222082.5288491589</v>
+        <v>263754.1901633231</v>
       </c>
     </row>
     <row r="11">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>176.4709967001365</v>
+        <v>210.1406909201481</v>
       </c>
       <c r="AB11" t="n">
-        <v>241.4554030359288</v>
+        <v>287.5237640698002</v>
       </c>
       <c r="AC11" t="n">
-        <v>218.4112382550362</v>
+        <v>260.0828995692004</v>
       </c>
       <c r="AD11" t="n">
-        <v>176470.9967001365</v>
+        <v>210140.6909201481</v>
       </c>
       <c r="AE11" t="n">
-        <v>241455.4030359288</v>
+        <v>287523.7640698001</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.032362881056735e-06</v>
+        <v>5.903227564597906e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.796223958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>218411.2382550362</v>
+        <v>260082.8995692004</v>
       </c>
     </row>
     <row r="12">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>174.3679468226564</v>
+        <v>208.037641042668</v>
       </c>
       <c r="AB12" t="n">
-        <v>238.5779174135494</v>
+        <v>284.6462784474209</v>
       </c>
       <c r="AC12" t="n">
-        <v>215.8083758218794</v>
+        <v>257.4800371360436</v>
       </c>
       <c r="AD12" t="n">
-        <v>174367.9468226564</v>
+        <v>208037.641042668</v>
       </c>
       <c r="AE12" t="n">
-        <v>238577.9174135494</v>
+        <v>284646.2784474209</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.044049769571619e-06</v>
+        <v>5.920336729735188e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>215808.3758218794</v>
+        <v>257480.0371360436</v>
       </c>
     </row>
     <row r="13">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>171.5726401500617</v>
+        <v>205.2423343700733</v>
       </c>
       <c r="AB13" t="n">
-        <v>234.7532555038804</v>
+        <v>280.8216165377518</v>
       </c>
       <c r="AC13" t="n">
-        <v>212.3487342769213</v>
+        <v>254.0203955910854</v>
       </c>
       <c r="AD13" t="n">
-        <v>171572.6401500617</v>
+        <v>205242.3343700733</v>
       </c>
       <c r="AE13" t="n">
-        <v>234753.2555038804</v>
+        <v>280821.6165377518</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.070707465688212e-06</v>
+        <v>5.959362594015267e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH13" t="n">
-        <v>212348.7342769213</v>
+        <v>254020.3955910855</v>
       </c>
     </row>
     <row r="14">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>169.9864514354869</v>
+        <v>203.6561456554986</v>
       </c>
       <c r="AB14" t="n">
-        <v>232.582962126893</v>
+        <v>278.6513231607644</v>
       </c>
       <c r="AC14" t="n">
-        <v>210.385570653807</v>
+        <v>252.0572319679711</v>
       </c>
       <c r="AD14" t="n">
-        <v>169986.4514354869</v>
+        <v>203656.1456554985</v>
       </c>
       <c r="AE14" t="n">
-        <v>232582.962126893</v>
+        <v>278651.3231607644</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.078337748272309e-06</v>
+        <v>5.970533040675145e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>210385.570653807</v>
+        <v>252057.2319679711</v>
       </c>
     </row>
     <row r="15">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>168.7880875577995</v>
+        <v>202.4577817778111</v>
       </c>
       <c r="AB15" t="n">
-        <v>230.9433078013588</v>
+        <v>277.0116688352302</v>
       </c>
       <c r="AC15" t="n">
-        <v>208.9024026358319</v>
+        <v>250.5740639499961</v>
       </c>
       <c r="AD15" t="n">
-        <v>168788.0875577994</v>
+        <v>202457.7817778111</v>
       </c>
       <c r="AE15" t="n">
-        <v>230943.3078013588</v>
+        <v>277011.6688352302</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>5.991035759228085e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>208902.4026358319</v>
+        <v>250574.0639499961</v>
       </c>
     </row>
     <row r="16">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>168.3738719246052</v>
+        <v>202.0435661446168</v>
       </c>
       <c r="AB16" t="n">
-        <v>230.3765596981186</v>
+        <v>276.44492073199</v>
       </c>
       <c r="AC16" t="n">
-        <v>208.3897441761289</v>
+        <v>250.0614054902931</v>
       </c>
       <c r="AD16" t="n">
-        <v>168373.8719246052</v>
+        <v>202043.5661446168</v>
       </c>
       <c r="AE16" t="n">
-        <v>230376.5596981186</v>
+        <v>276444.92073199</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>5.991035759228085e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>208389.7441761289</v>
+        <v>250061.4054902931</v>
       </c>
     </row>
     <row r="17">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>168.9273978381346</v>
+        <v>202.5970920581463</v>
       </c>
       <c r="AB17" t="n">
-        <v>231.1339182728491</v>
+        <v>277.2022793067205</v>
       </c>
       <c r="AC17" t="n">
-        <v>209.0748215114467</v>
+        <v>250.7464828256109</v>
       </c>
       <c r="AD17" t="n">
-        <v>168927.3978381346</v>
+        <v>202597.0920581463</v>
       </c>
       <c r="AE17" t="n">
-        <v>231133.9182728491</v>
+        <v>277202.2793067205</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.0917631821861e-06</v>
+        <v>5.99018737087417e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>209074.8215114467</v>
+        <v>250746.4828256109</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.2174763715661</v>
+        <v>239.0539200427648</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.9463841431082</v>
+        <v>327.0841197169888</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.8013257267352</v>
+        <v>295.8676703967418</v>
       </c>
       <c r="AD2" t="n">
-        <v>200217.4763715661</v>
+        <v>239053.9200427648</v>
       </c>
       <c r="AE2" t="n">
-        <v>273946.3841431082</v>
+        <v>327084.1197169888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.550995224233046e-06</v>
+        <v>5.493827921580471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.879557291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>247801.3257267352</v>
+        <v>295867.6703967418</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5281927336827</v>
+        <v>188.5120963246211</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5370229515093</v>
+        <v>257.9305667579644</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.9664719891906</v>
+        <v>233.3140354744836</v>
       </c>
       <c r="AD3" t="n">
-        <v>157528.1927336827</v>
+        <v>188512.0963246211</v>
       </c>
       <c r="AE3" t="n">
-        <v>215537.0229515093</v>
+        <v>257930.5667579644</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.207565058700319e-06</v>
+        <v>6.509622497829961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.336588541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>194966.4719891906</v>
+        <v>233314.0354744836</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4000199330355</v>
+        <v>178.065781895091</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.7332571671363</v>
+        <v>243.6374584966216</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.5299427989664</v>
+        <v>220.3850414050953</v>
       </c>
       <c r="AD4" t="n">
-        <v>139400.0199330355</v>
+        <v>178065.781895091</v>
       </c>
       <c r="AE4" t="n">
-        <v>190733.2571671364</v>
+        <v>243637.4584966216</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.424517632039555e-06</v>
+        <v>6.845274907874319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.9296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>172529.9427989664</v>
+        <v>220385.0414050953</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.955816987712</v>
+        <v>164.024971924671</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.9160143991799</v>
+        <v>224.4262028582844</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.554205305703</v>
+        <v>203.0072810417082</v>
       </c>
       <c r="AD5" t="n">
-        <v>132955.816987712</v>
+        <v>164024.971924671</v>
       </c>
       <c r="AE5" t="n">
-        <v>181916.01439918</v>
+        <v>224426.2028582844</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.538221042309249e-06</v>
+        <v>7.021188118304918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.731119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164554.205305703</v>
+        <v>203007.2810417083</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.9499282261188</v>
+        <v>164.0190831630778</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.9079571357744</v>
+        <v>224.4181455948788</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.5469170162084</v>
+        <v>202.9999927522137</v>
       </c>
       <c r="AD6" t="n">
-        <v>132949.9282261188</v>
+        <v>164019.0831630778</v>
       </c>
       <c r="AE6" t="n">
-        <v>181907.9571357744</v>
+        <v>224418.1455948788</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.54339427803716e-06</v>
+        <v>7.029191752523563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>164546.9170162084</v>
+        <v>202999.9927522137</v>
       </c>
     </row>
   </sheetData>
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.0161443481529</v>
+        <v>312.1235614154268</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.1844892024793</v>
+        <v>427.0612266482855</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.6637239172052</v>
+        <v>386.3031025611685</v>
       </c>
       <c r="AD2" t="n">
-        <v>272016.1443481529</v>
+        <v>312123.5614154268</v>
       </c>
       <c r="AE2" t="n">
-        <v>372184.4892024792</v>
+        <v>427061.2266482855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.033986404358262e-06</v>
+        <v>4.585245353233873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.06119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336663.7239172052</v>
+        <v>386303.1025611685</v>
       </c>
     </row>
     <row r="3">
@@ -10939,28 +10939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.7463887798375</v>
+        <v>228.7683754839882</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.251136031445</v>
+        <v>313.0109838854769</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.604010066425</v>
+        <v>283.1376548972147</v>
       </c>
       <c r="AD3" t="n">
-        <v>188746.3887798375</v>
+        <v>228768.3754839882</v>
       </c>
       <c r="AE3" t="n">
-        <v>258251.1360314449</v>
+        <v>313010.9838854769</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.797277417457705e-06</v>
+        <v>5.738802457495082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.837890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>233604.010066425</v>
+        <v>283137.6548972147</v>
       </c>
     </row>
     <row r="4">
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.8193989548031</v>
+        <v>205.8200096557604</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.8273700205289</v>
+        <v>281.6120173488633</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.1294596186487</v>
+        <v>254.7353616581193</v>
       </c>
       <c r="AD4" t="n">
-        <v>173819.3989548031</v>
+        <v>205820.0096557604</v>
       </c>
       <c r="AE4" t="n">
-        <v>237827.3700205289</v>
+        <v>281612.0173488633</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068445236510999e-06</v>
+        <v>6.1486167468652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>215129.4596186487</v>
+        <v>254735.3616581193</v>
       </c>
     </row>
     <row r="5">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.1767630719284</v>
+        <v>198.1134089215075</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.4244255012005</v>
+        <v>271.0675062330349</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.7691820850169</v>
+        <v>245.1972038838678</v>
       </c>
       <c r="AD5" t="n">
-        <v>158176.7630719284</v>
+        <v>198113.4089215075</v>
       </c>
       <c r="AE5" t="n">
-        <v>216424.4255012005</v>
+        <v>271067.5062330349</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.198564547402732e-06</v>
+        <v>6.34526527659337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>195769.1820850169</v>
+        <v>245197.2038838678</v>
       </c>
     </row>
     <row r="6">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.098484093209</v>
+        <v>184.1843461401869</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.1078560477777</v>
+        <v>252.0091480287614</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.2463343478476</v>
+        <v>227.9577486380304</v>
       </c>
       <c r="AD6" t="n">
-        <v>152098.484093209</v>
+        <v>184184.3461401869</v>
       </c>
       <c r="AE6" t="n">
-        <v>208107.8560477778</v>
+        <v>252009.1480287614</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.294246576331043e-06</v>
+        <v>6.489868949800774e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.815755208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>188246.3343478476</v>
+        <v>227957.7486380304</v>
       </c>
     </row>
     <row r="7">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.1482756886533</v>
+        <v>180.2341377356313</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.7030066377719</v>
+        <v>246.6042986187556</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.3573161797772</v>
+        <v>223.0687304699601</v>
       </c>
       <c r="AD7" t="n">
-        <v>148148.2756886533</v>
+        <v>180234.1377356313</v>
       </c>
       <c r="AE7" t="n">
-        <v>202703.006637772</v>
+        <v>246604.2986187556</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.346108710545417e-06</v>
+        <v>6.568247880429355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>183357.3161797772</v>
+        <v>223068.7304699601</v>
       </c>
     </row>
     <row r="8">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.5226168031148</v>
+        <v>177.6084788500928</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.1104643146852</v>
+        <v>243.0117562956689</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.1076410538399</v>
+        <v>219.8190553440228</v>
       </c>
       <c r="AD8" t="n">
-        <v>145522.6168031148</v>
+        <v>177608.4788500927</v>
       </c>
       <c r="AE8" t="n">
-        <v>199110.4643146852</v>
+        <v>243011.7562956689</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.377452823470208e-06</v>
+        <v>6.615618049238676e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.666015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>180107.6410538399</v>
+        <v>219819.0553440228</v>
       </c>
     </row>
     <row r="9">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.7989937010603</v>
+        <v>177.8848557480382</v>
       </c>
       <c r="AB9" t="n">
-        <v>199.4886153793422</v>
+        <v>243.3899073603259</v>
       </c>
       <c r="AC9" t="n">
-        <v>180.4497019116245</v>
+        <v>220.1611162018074</v>
       </c>
       <c r="AD9" t="n">
-        <v>145798.9937010603</v>
+        <v>177884.8557480382</v>
       </c>
       <c r="AE9" t="n">
-        <v>199488.6153793422</v>
+        <v>243389.9073603259</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.377762140374072e-06</v>
+        <v>6.616085518009821e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.666015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>180449.7019116246</v>
+        <v>220161.1162018074</v>
       </c>
     </row>
   </sheetData>
@@ -11872,28 +11872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.3368868600305</v>
+        <v>195.5722229171458</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.2212227504446</v>
+        <v>267.5905434326546</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.6309867546875</v>
+        <v>242.0520775332068</v>
       </c>
       <c r="AD2" t="n">
-        <v>165336.8868600305</v>
+        <v>195572.2229171458</v>
       </c>
       <c r="AE2" t="n">
-        <v>226221.2227504446</v>
+        <v>267590.5434326546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99537858544843e-06</v>
+        <v>6.314647871172975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.12109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>204630.9867546875</v>
+        <v>242052.0775332068</v>
       </c>
     </row>
     <row r="3">
@@ -11978,28 +11978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.7752185974676</v>
+        <v>164.9252138000112</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.4053999479804</v>
+        <v>225.6579535079929</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.8060073916013</v>
+        <v>204.1214751381818</v>
       </c>
       <c r="AD3" t="n">
-        <v>134775.2185974676</v>
+        <v>164925.2138000112</v>
       </c>
       <c r="AE3" t="n">
-        <v>184405.3999479804</v>
+        <v>225657.9535079928</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553930138689526e-06</v>
+        <v>7.197431893057694e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.001302083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>166806.0073916013</v>
+        <v>204121.4751381818</v>
       </c>
     </row>
     <row r="4">
@@ -12084,28 +12084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.5110784812578</v>
+        <v>152.746325029822</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.6250623853145</v>
+        <v>208.9942605979761</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.6271616945592</v>
+        <v>189.0481416918519</v>
       </c>
       <c r="AD4" t="n">
-        <v>122511.0784812578</v>
+        <v>152746.325029822</v>
       </c>
       <c r="AE4" t="n">
-        <v>167625.0623853145</v>
+        <v>208994.2605979761</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.667991067096876e-06</v>
+        <v>7.377703820572831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.805989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>151627.1616945592</v>
+        <v>189048.1416918519</v>
       </c>
     </row>
   </sheetData>
@@ -12381,28 +12381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.3362180916022</v>
+        <v>546.0443384565532</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.4807162975192</v>
+        <v>747.1219536522985</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.0179953035375</v>
+        <v>675.8176829879703</v>
       </c>
       <c r="AD2" t="n">
-        <v>478336.2180916022</v>
+        <v>546044.3384565532</v>
       </c>
       <c r="AE2" t="n">
-        <v>654480.7162975192</v>
+        <v>747121.9536522985</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142269743341706e-06</v>
+        <v>3.123185685961365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>592017.9953035376</v>
+        <v>675817.6829879703</v>
       </c>
     </row>
     <row r="3">
@@ -12487,28 +12487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.6107494453964</v>
+        <v>321.8964113615773</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.575762946858</v>
+        <v>440.4328710923194</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.0632690796648</v>
+        <v>398.3985760266846</v>
       </c>
       <c r="AD3" t="n">
-        <v>279610.7494453964</v>
+        <v>321896.4113615773</v>
       </c>
       <c r="AE3" t="n">
-        <v>382575.7629468581</v>
+        <v>440432.8710923194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091794601656782e-06</v>
+        <v>4.507484957876683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>346063.2690796648</v>
+        <v>398398.5760266846</v>
       </c>
     </row>
     <row r="4">
@@ -12593,28 +12593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.5482973629632</v>
+        <v>273.4451174812785</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.7605485768718</v>
+        <v>374.1396732850671</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.4795418356117</v>
+        <v>338.432307975069</v>
       </c>
       <c r="AD4" t="n">
-        <v>239548.2973629631</v>
+        <v>273445.1174812785</v>
       </c>
       <c r="AE4" t="n">
-        <v>327760.5485768718</v>
+        <v>374139.6732850671</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.442027611392151e-06</v>
+        <v>5.018084860693029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.052734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>296479.5418356117</v>
+        <v>338432.307975069</v>
       </c>
     </row>
     <row r="5">
@@ -12699,28 +12699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.2270161636603</v>
+        <v>259.512588571293</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.2195868945743</v>
+        <v>355.07657257063</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.853366671754</v>
+        <v>321.1885628375878</v>
       </c>
       <c r="AD5" t="n">
-        <v>217227.0161636603</v>
+        <v>259512.588571293</v>
       </c>
       <c r="AE5" t="n">
-        <v>297219.5868945743</v>
+        <v>355076.57257063</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.629731063726412e-06</v>
+        <v>5.291735150231935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.583984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>268853.366671754</v>
+        <v>321188.5628375878</v>
       </c>
     </row>
     <row r="6">
@@ -12805,28 +12805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.0987411755718</v>
+        <v>242.9102204393121</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.0981224616932</v>
+        <v>332.3604800475086</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.7933191952701</v>
+        <v>300.6404623027367</v>
       </c>
       <c r="AD6" t="n">
-        <v>209098.7411755718</v>
+        <v>242910.2204393121</v>
       </c>
       <c r="AE6" t="n">
-        <v>286098.1224616931</v>
+        <v>332360.4800475086</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.743061450041437e-06</v>
+        <v>5.456957966557311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.323567708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>258793.3191952701</v>
+        <v>300640.4623027367</v>
       </c>
     </row>
     <row r="7">
@@ -12911,28 +12911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.8985041886346</v>
+        <v>237.7099834523749</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.9829287979049</v>
+        <v>325.2452863837203</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.3571896285144</v>
+        <v>294.2043327359811</v>
       </c>
       <c r="AD7" t="n">
-        <v>203898.5041886346</v>
+        <v>237709.9834523749</v>
       </c>
       <c r="AE7" t="n">
-        <v>278982.9287979049</v>
+        <v>325245.2863837203</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815041560268548e-06</v>
+        <v>5.561896782331537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.167317708333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>252357.1896285145</v>
+        <v>294204.3327359811</v>
       </c>
     </row>
     <row r="8">
@@ -13017,28 +13017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>199.7613853904351</v>
+        <v>233.5728646541754</v>
       </c>
       <c r="AB8" t="n">
-        <v>273.3223403414111</v>
+        <v>319.5846979272266</v>
       </c>
       <c r="AC8" t="n">
-        <v>247.2368397896209</v>
+        <v>289.0839828970875</v>
       </c>
       <c r="AD8" t="n">
-        <v>199761.3853904351</v>
+        <v>233572.8646541754</v>
       </c>
       <c r="AE8" t="n">
-        <v>273322.3403414111</v>
+        <v>319584.6979272265</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.870270979950786e-06</v>
+        <v>5.642414996030644e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.050130208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>247236.8397896209</v>
+        <v>289083.9828970875</v>
       </c>
     </row>
     <row r="9">
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.7125798069724</v>
+        <v>229.9128113600302</v>
       </c>
       <c r="AB9" t="n">
-        <v>256.8366329863388</v>
+        <v>314.5768515400244</v>
       </c>
       <c r="AC9" t="n">
-        <v>232.3245052066758</v>
+        <v>284.5540783405218</v>
       </c>
       <c r="AD9" t="n">
-        <v>187712.5798069724</v>
+        <v>229912.8113600303</v>
       </c>
       <c r="AE9" t="n">
-        <v>256836.6329863388</v>
+        <v>314576.8515400244</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.915928576464525e-06</v>
+        <v>5.70897857997254e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>232324.5052066758</v>
+        <v>284554.0783405218</v>
       </c>
     </row>
     <row r="10">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>185.3357189216347</v>
+        <v>219.2324495313955</v>
       </c>
       <c r="AB10" t="n">
-        <v>253.5845070633196</v>
+        <v>299.9635093017843</v>
       </c>
       <c r="AC10" t="n">
-        <v>229.3827576173612</v>
+        <v>271.33541297554</v>
       </c>
       <c r="AD10" t="n">
-        <v>185335.7189216347</v>
+        <v>219232.4495313955</v>
       </c>
       <c r="AE10" t="n">
-        <v>253584.5070633196</v>
+        <v>299963.5093017843</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.940145289080826e-06</v>
+        <v>5.744283793258283e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.906901041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>229382.7576173612</v>
+        <v>271335.41297554</v>
       </c>
     </row>
     <row r="11">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>182.3471243108639</v>
+        <v>216.2438549206248</v>
       </c>
       <c r="AB11" t="n">
-        <v>249.4953800693762</v>
+        <v>295.8743823078409</v>
       </c>
       <c r="AC11" t="n">
-        <v>225.6838911645926</v>
+        <v>267.6365465227715</v>
       </c>
       <c r="AD11" t="n">
-        <v>182347.1243108639</v>
+        <v>216243.8549206248</v>
       </c>
       <c r="AE11" t="n">
-        <v>249495.3800693762</v>
+        <v>295874.3823078409</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.975656753035957e-06</v>
+        <v>5.796055469657535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>225683.8911645926</v>
+        <v>267636.5465227715</v>
       </c>
     </row>
     <row r="12">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>179.7322706145142</v>
+        <v>213.6290012242752</v>
       </c>
       <c r="AB12" t="n">
-        <v>245.917621882829</v>
+        <v>292.2966241212936</v>
       </c>
       <c r="AC12" t="n">
-        <v>222.4475891979532</v>
+        <v>264.4002445561321</v>
       </c>
       <c r="AD12" t="n">
-        <v>179732.2706145142</v>
+        <v>213629.0012242752</v>
       </c>
       <c r="AE12" t="n">
-        <v>245917.621882829</v>
+        <v>292296.6241212937</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.998820565103724e-06</v>
+        <v>5.829825673669985e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>222447.5891979532</v>
+        <v>264400.2445561321</v>
       </c>
     </row>
     <row r="13">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>178.4561174471283</v>
+        <v>212.3528480568893</v>
       </c>
       <c r="AB13" t="n">
-        <v>244.1715328193082</v>
+        <v>290.5505350577729</v>
       </c>
       <c r="AC13" t="n">
-        <v>220.8681444240028</v>
+        <v>262.8207997821817</v>
       </c>
       <c r="AD13" t="n">
-        <v>178456.1174471283</v>
+        <v>212352.8480568893</v>
       </c>
       <c r="AE13" t="n">
-        <v>244171.5328193082</v>
+        <v>290550.5350577729</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.010976780527717e-06</v>
+        <v>5.847548053461644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>220868.1444240029</v>
+        <v>262820.7997821817</v>
       </c>
     </row>
     <row r="14">
@@ -13653,28 +13653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>175.5081073980337</v>
+        <v>209.4048380077946</v>
       </c>
       <c r="AB14" t="n">
-        <v>240.1379354131145</v>
+        <v>286.5169376515792</v>
       </c>
       <c r="AC14" t="n">
-        <v>217.2195078930655</v>
+        <v>259.1721632512444</v>
       </c>
       <c r="AD14" t="n">
-        <v>175508.1073980337</v>
+        <v>209404.8380077946</v>
       </c>
       <c r="AE14" t="n">
-        <v>240137.9354131145</v>
+        <v>286516.9376515792</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.024951642353725e-06</v>
+        <v>5.867921812907172e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.740885416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>217219.5078930655</v>
+        <v>259172.1632512444</v>
       </c>
     </row>
     <row r="15">
@@ -13759,28 +13759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>173.5061662452746</v>
+        <v>207.4028968550355</v>
       </c>
       <c r="AB15" t="n">
-        <v>237.3987912085005</v>
+        <v>283.7777934469652</v>
       </c>
       <c r="AC15" t="n">
-        <v>214.741783766926</v>
+        <v>256.6944391251048</v>
       </c>
       <c r="AD15" t="n">
-        <v>173506.1662452747</v>
+        <v>207402.8968550355</v>
       </c>
       <c r="AE15" t="n">
-        <v>237398.7912085005</v>
+        <v>283777.7934469652</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.046583962714533e-06</v>
+        <v>5.899459276158468e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.698567708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>214741.783766926</v>
+        <v>256694.4391251048</v>
       </c>
     </row>
     <row r="16">
@@ -13865,28 +13865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>172.9479633372769</v>
+        <v>206.8446939470378</v>
       </c>
       <c r="AB16" t="n">
-        <v>236.6350333636042</v>
+        <v>283.0140356020689</v>
       </c>
       <c r="AC16" t="n">
-        <v>214.0509178988054</v>
+        <v>256.0035732569843</v>
       </c>
       <c r="AD16" t="n">
-        <v>172947.9633372769</v>
+        <v>206844.6939470378</v>
       </c>
       <c r="AE16" t="n">
-        <v>236635.0333636042</v>
+        <v>283014.0356020689</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.043138106373873e-06</v>
+        <v>5.894435609445872e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.705078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>214050.9178988054</v>
+        <v>256003.5732569843</v>
       </c>
     </row>
     <row r="17">
@@ -13971,28 +13971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>171.6222096492515</v>
+        <v>205.5189402590124</v>
       </c>
       <c r="AB17" t="n">
-        <v>234.8210786795238</v>
+        <v>281.2000809179885</v>
       </c>
       <c r="AC17" t="n">
-        <v>212.4100845038718</v>
+        <v>254.3627398620506</v>
       </c>
       <c r="AD17" t="n">
-        <v>171622.2096492515</v>
+        <v>205518.9402590124</v>
       </c>
       <c r="AE17" t="n">
-        <v>234821.0786795238</v>
+        <v>281200.0809179885</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.056060067651346e-06</v>
+        <v>5.913274359618106e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>212410.0845038718</v>
+        <v>254362.7398620506</v>
       </c>
     </row>
     <row r="18">
@@ -14077,28 +14077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>171.9986442627462</v>
+        <v>205.8953748725071</v>
       </c>
       <c r="AB18" t="n">
-        <v>235.33613312483</v>
+        <v>281.7151353632947</v>
       </c>
       <c r="AC18" t="n">
-        <v>212.8759828758016</v>
+        <v>254.8286382339805</v>
       </c>
       <c r="AD18" t="n">
-        <v>171998.6442627462</v>
+        <v>205895.3748725071</v>
       </c>
       <c r="AE18" t="n">
-        <v>235336.1331248301</v>
+        <v>281715.1353632947</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.057304404663251e-06</v>
+        <v>5.915088461486544e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.679036458333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>212875.9828758016</v>
+        <v>254828.6382339805</v>
       </c>
     </row>
   </sheetData>
@@ -14374,28 +14374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.5203860456617</v>
+        <v>176.6118550963085</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.8979473926095</v>
+        <v>241.6481317078051</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.6789152204646</v>
+        <v>218.5855731729652</v>
       </c>
       <c r="AD2" t="n">
-        <v>139520.3860456617</v>
+        <v>176611.8550963085</v>
       </c>
       <c r="AE2" t="n">
-        <v>190897.9473926095</v>
+        <v>241648.1317078051</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283649693382766e-06</v>
+        <v>6.863413028165412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.704427083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>172678.9152204646</v>
+        <v>218585.5731729651</v>
       </c>
     </row>
     <row r="3">
@@ -14480,28 +14480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0025617145016</v>
+        <v>154.0086899105769</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.0880667264341</v>
+        <v>210.721483919432</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.8094863231201</v>
+        <v>190.6105212436818</v>
       </c>
       <c r="AD3" t="n">
-        <v>117002.5617145016</v>
+        <v>154008.6899105769</v>
       </c>
       <c r="AE3" t="n">
-        <v>160088.0667264341</v>
+        <v>210721.483919432</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.704053340253062e-06</v>
+        <v>7.536998422292088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.926432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>144809.4863231201</v>
+        <v>190610.5212436818</v>
       </c>
     </row>
     <row r="4">
@@ -14586,28 +14586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.5450130281718</v>
+        <v>154.5511412242471</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.8302725450603</v>
+        <v>211.4636897380583</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.4808570601093</v>
+        <v>191.2818919806709</v>
       </c>
       <c r="AD4" t="n">
-        <v>117545.0130281718</v>
+        <v>154551.1412242471</v>
       </c>
       <c r="AE4" t="n">
-        <v>160830.2725450603</v>
+        <v>211463.6897380583</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.701304106595056e-06</v>
+        <v>7.532593504183358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.932942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>145480.8570601093</v>
+        <v>191281.8919806709</v>
       </c>
     </row>
   </sheetData>
@@ -14883,28 +14883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.0750895435045</v>
+        <v>396.3891151293213</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.8834493857167</v>
+        <v>542.3570747734952</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.5612394794504</v>
+        <v>490.5952767600474</v>
       </c>
       <c r="AD2" t="n">
-        <v>347075.0895435045</v>
+        <v>396389.1151293213</v>
       </c>
       <c r="AE2" t="n">
-        <v>474883.4493857167</v>
+        <v>542357.0747734952</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608941770570773e-06</v>
+        <v>3.873869439738933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>429561.2394794504</v>
+        <v>490595.2767600474</v>
       </c>
     </row>
     <row r="3">
@@ -14989,28 +14989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.3802564673574</v>
+        <v>268.3757283766325</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.1116982074347</v>
+        <v>367.2035114664274</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.4196343786201</v>
+        <v>332.158123705436</v>
       </c>
       <c r="AD3" t="n">
-        <v>227380.2564673575</v>
+        <v>268375.7283766326</v>
       </c>
       <c r="AE3" t="n">
-        <v>311111.6982074347</v>
+        <v>367203.5114664274</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.469135258186204e-06</v>
+        <v>5.151121888039781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>281419.6343786201</v>
+        <v>332158.123705436</v>
       </c>
     </row>
     <row r="4">
@@ -15095,28 +15095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.5145503613556</v>
+        <v>239.595273616648</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.6163656481461</v>
+        <v>327.8248235596093</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6936809267301</v>
+        <v>296.5376825042073</v>
       </c>
       <c r="AD4" t="n">
-        <v>198514.5503613557</v>
+        <v>239595.273616648</v>
       </c>
       <c r="AE4" t="n">
-        <v>271616.3656481461</v>
+        <v>327824.8235596094</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.771357333832672e-06</v>
+        <v>5.599874281085786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.590494791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>245693.68092673</v>
+        <v>296537.6825042074</v>
       </c>
     </row>
     <row r="5">
@@ -15201,28 +15201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.7434079626026</v>
+        <v>221.5910079044732</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.2470575457999</v>
+        <v>303.1905929200794</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.6003208257257</v>
+        <v>274.2545082625464</v>
       </c>
       <c r="AD5" t="n">
-        <v>188743.4079626027</v>
+        <v>221591.0079044732</v>
       </c>
       <c r="AE5" t="n">
-        <v>258247.0575457999</v>
+        <v>303190.5929200794</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.92848892996233e-06</v>
+        <v>5.833190062653006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.245442708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>233600.3208257257</v>
+        <v>274254.5082625464</v>
       </c>
     </row>
     <row r="6">
@@ -15307,28 +15307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.1577751025209</v>
+        <v>215.0053750443915</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.2363041290239</v>
+        <v>294.1798395033034</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.4495410683722</v>
+        <v>266.1037285051928</v>
       </c>
       <c r="AD6" t="n">
-        <v>182157.7751025209</v>
+        <v>215005.3750443915</v>
       </c>
       <c r="AE6" t="n">
-        <v>249236.3041290239</v>
+        <v>294179.8395033034</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031286231293513e-06</v>
+        <v>5.985827936217881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.033854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>225449.5410683721</v>
+        <v>266103.7285051928</v>
       </c>
     </row>
     <row r="7">
@@ -15413,28 +15413,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.2284597260865</v>
+        <v>202.1613110139777</v>
       </c>
       <c r="AB7" t="n">
-        <v>231.5458444298577</v>
+        <v>276.6060244567865</v>
       </c>
       <c r="AC7" t="n">
-        <v>209.4474340141726</v>
+        <v>250.2071337017055</v>
       </c>
       <c r="AD7" t="n">
-        <v>169228.4597260865</v>
+        <v>202161.3110139777</v>
       </c>
       <c r="AE7" t="n">
-        <v>231545.8444298577</v>
+        <v>276606.0244567865</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.09666650910047e-06</v>
+        <v>6.082907396945976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.906901041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>209447.4340141726</v>
+        <v>250207.1337017055</v>
       </c>
     </row>
     <row r="8">
@@ -15519,28 +15519,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.7726934720915</v>
+        <v>198.7055447599826</v>
       </c>
       <c r="AB8" t="n">
-        <v>226.8175125834969</v>
+        <v>271.8776926104256</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.1703675229715</v>
+        <v>245.9300672105044</v>
       </c>
       <c r="AD8" t="n">
-        <v>165772.6934720915</v>
+        <v>198705.5447599826</v>
       </c>
       <c r="AE8" t="n">
-        <v>226817.5125834969</v>
+        <v>271877.6926104256</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.142343141540946e-06</v>
+        <v>6.150730033893002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>205170.3675229715</v>
+        <v>245930.0672105044</v>
       </c>
     </row>
     <row r="9">
@@ -15625,28 +15625,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>162.6203023343527</v>
+        <v>195.5531536222439</v>
       </c>
       <c r="AB9" t="n">
-        <v>222.5042719551631</v>
+        <v>267.564451982092</v>
       </c>
       <c r="AC9" t="n">
-        <v>201.2687765265334</v>
+        <v>242.0284762140663</v>
       </c>
       <c r="AD9" t="n">
-        <v>162620.3023343527</v>
+        <v>195553.1536222438</v>
       </c>
       <c r="AE9" t="n">
-        <v>222504.2719551632</v>
+        <v>267564.4519820919</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.176078170729012e-06</v>
+        <v>6.200821262487863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.757161458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>201268.7765265334</v>
+        <v>242028.4762140663</v>
       </c>
     </row>
     <row r="10">
@@ -15731,28 +15731,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>159.3587920065541</v>
+        <v>192.2916432944452</v>
       </c>
       <c r="AB10" t="n">
-        <v>218.0417296369908</v>
+        <v>263.1019096639195</v>
       </c>
       <c r="AC10" t="n">
-        <v>197.2321329839884</v>
+        <v>237.9918326715213</v>
       </c>
       <c r="AD10" t="n">
-        <v>159358.7920065541</v>
+        <v>192291.6432944452</v>
       </c>
       <c r="AE10" t="n">
-        <v>218041.7296369908</v>
+        <v>263101.9096639195</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.207126339185282e-06</v>
+        <v>6.246922924203488e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.698567708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>197232.1329839884</v>
+        <v>237991.8326715213</v>
       </c>
     </row>
     <row r="11">
@@ -15837,28 +15837,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>158.0077204652</v>
+        <v>190.9405717530911</v>
       </c>
       <c r="AB11" t="n">
-        <v>216.1931339490413</v>
+        <v>261.25331397597</v>
       </c>
       <c r="AC11" t="n">
-        <v>195.5599646739759</v>
+        <v>236.3196643615088</v>
       </c>
       <c r="AD11" t="n">
-        <v>158007.7204652</v>
+        <v>190940.5717530911</v>
       </c>
       <c r="AE11" t="n">
-        <v>216193.1339490413</v>
+        <v>261253.31397597</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.219067942437696e-06</v>
+        <v>6.264654332555652e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.679036458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>195559.9646739759</v>
+        <v>236319.6643615088</v>
       </c>
     </row>
     <row r="12">
@@ -15943,28 +15943,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>156.9776186587144</v>
+        <v>189.9104699466055</v>
       </c>
       <c r="AB12" t="n">
-        <v>214.7837032125241</v>
+        <v>259.8438832394528</v>
       </c>
       <c r="AC12" t="n">
-        <v>194.285048028803</v>
+        <v>235.0447477163358</v>
       </c>
       <c r="AD12" t="n">
-        <v>156977.6186587144</v>
+        <v>189910.4699466055</v>
       </c>
       <c r="AE12" t="n">
-        <v>214783.7032125241</v>
+        <v>259843.8832394528</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.230412465527487e-06</v>
+        <v>6.281499170490207e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH12" t="n">
-        <v>194285.048028803</v>
+        <v>235044.7477163358</v>
       </c>
     </row>
   </sheetData>
@@ -16240,28 +16240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.7148804635029</v>
+        <v>466.0538311144377</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.8534865612252</v>
+        <v>637.6754125746917</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.6127327561069</v>
+        <v>576.8165661816249</v>
       </c>
       <c r="AD2" t="n">
-        <v>407714.8804635029</v>
+        <v>466053.8311144377</v>
       </c>
       <c r="AE2" t="n">
-        <v>557853.4865612251</v>
+        <v>637675.4125746917</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365916779898886e-06</v>
+        <v>3.478944535278301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.41471354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>504612.7327561069</v>
+        <v>576816.5661816249</v>
       </c>
     </row>
     <row r="3">
@@ -16346,28 +16346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.6704546813695</v>
+        <v>290.4629852896061</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.2418866610871</v>
+        <v>397.4242707957616</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.7696785307415</v>
+        <v>359.4946561794806</v>
       </c>
       <c r="AD3" t="n">
-        <v>248670.4546813695</v>
+        <v>290462.9852896061</v>
       </c>
       <c r="AE3" t="n">
-        <v>340241.8866610871</v>
+        <v>397424.2707957616</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.272794668620894e-06</v>
+        <v>4.812456306249803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.697265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>307769.6785307415</v>
+        <v>359494.6561794806</v>
       </c>
     </row>
     <row r="4">
@@ -16452,28 +16452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.6639136860047</v>
+        <v>256.3711034396661</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.7126370085469</v>
+        <v>350.7782540208296</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.6811151608129</v>
+        <v>317.300469777558</v>
       </c>
       <c r="AD4" t="n">
-        <v>214663.9136860048</v>
+        <v>256371.1034396661</v>
       </c>
       <c r="AE4" t="n">
-        <v>293712.637008547</v>
+        <v>350778.2540208296</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.600503149858898e-06</v>
+        <v>5.29433277783729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>265681.1151608129</v>
+        <v>317300.4697775579</v>
       </c>
     </row>
     <row r="5">
@@ -16558,28 +16558,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.8630221157168</v>
+        <v>236.2117952562826</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.5661365434944</v>
+        <v>323.1953991984294</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.0756140383841</v>
+        <v>292.350083906619</v>
       </c>
       <c r="AD5" t="n">
-        <v>202863.0221157168</v>
+        <v>236211.7952562826</v>
       </c>
       <c r="AE5" t="n">
-        <v>277566.1365434944</v>
+        <v>323195.3991984294</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.774058965569593e-06</v>
+        <v>5.549536621760446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>251075.6140383841</v>
+        <v>292350.083906619</v>
       </c>
     </row>
     <row r="6">
@@ -16664,28 +16664,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.188137898996</v>
+        <v>229.5369110395618</v>
       </c>
       <c r="AB6" t="n">
-        <v>268.4332654830729</v>
+        <v>314.0625281380079</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.8143713739013</v>
+        <v>284.0888412421361</v>
       </c>
       <c r="AD6" t="n">
-        <v>196188.137898996</v>
+        <v>229536.9110395618</v>
       </c>
       <c r="AE6" t="n">
-        <v>268433.265483073</v>
+        <v>314062.5281380079</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.874389827573135e-06</v>
+        <v>5.697067383219394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.193359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>242814.3713739013</v>
+        <v>284088.8412421361</v>
       </c>
     </row>
     <row r="7">
@@ -16770,28 +16770,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.8728698026956</v>
+        <v>224.2216429432614</v>
       </c>
       <c r="AB7" t="n">
-        <v>261.1606811806397</v>
+        <v>306.7899438355746</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.2358723101538</v>
+        <v>277.5103421783886</v>
       </c>
       <c r="AD7" t="n">
-        <v>190872.8698026956</v>
+        <v>224221.6429432614</v>
       </c>
       <c r="AE7" t="n">
-        <v>261160.6811806397</v>
+        <v>306789.9438355746</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.950929892366897e-06</v>
+        <v>5.809615145848427e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.033854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>236235.8723101538</v>
+        <v>277510.3421783886</v>
       </c>
     </row>
     <row r="8">
@@ -16876,28 +16876,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.3626521720125</v>
+        <v>220.9845010711022</v>
       </c>
       <c r="AB8" t="n">
-        <v>245.4118936233835</v>
+        <v>302.3607435134685</v>
       </c>
       <c r="AC8" t="n">
-        <v>221.9901269337949</v>
+        <v>273.5038585186012</v>
       </c>
       <c r="AD8" t="n">
-        <v>179362.6521720125</v>
+        <v>220984.5010711022</v>
       </c>
       <c r="AE8" t="n">
-        <v>245411.8936233835</v>
+        <v>302360.7435134685</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.994806362630837e-06</v>
+        <v>5.874132971559336e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.945963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>221990.1269337949</v>
+        <v>273503.8585186012</v>
       </c>
     </row>
     <row r="9">
@@ -16982,28 +16982,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>175.7072617689621</v>
+        <v>209.1412862555484</v>
       </c>
       <c r="AB9" t="n">
-        <v>240.4104272094893</v>
+        <v>286.1563345170734</v>
       </c>
       <c r="AC9" t="n">
-        <v>217.465993454839</v>
+        <v>258.8459755737861</v>
       </c>
       <c r="AD9" t="n">
-        <v>175707.2617689621</v>
+        <v>209141.2862555484</v>
       </c>
       <c r="AE9" t="n">
-        <v>240410.4272094893</v>
+        <v>286156.3345170735</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.037122780618725e-06</v>
+        <v>5.936356830133859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.861328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>217465.993454839</v>
+        <v>258845.9755737861</v>
       </c>
     </row>
     <row r="10">
@@ -17088,28 +17088,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>172.0260084260092</v>
+        <v>205.4600329125956</v>
       </c>
       <c r="AB10" t="n">
-        <v>235.3735739802282</v>
+        <v>281.1194812878123</v>
       </c>
       <c r="AC10" t="n">
-        <v>212.9098504285091</v>
+        <v>254.2898325474561</v>
       </c>
       <c r="AD10" t="n">
-        <v>172026.0084260092</v>
+        <v>205460.0329125955</v>
       </c>
       <c r="AE10" t="n">
-        <v>235373.5739802282</v>
+        <v>281119.4812878123</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.073393996036916e-06</v>
+        <v>5.989691566054878e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>212909.8504285091</v>
+        <v>254289.8325474561</v>
       </c>
     </row>
     <row r="11">
@@ -17194,28 +17194,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>169.6807270886179</v>
+        <v>203.1147515752043</v>
       </c>
       <c r="AB11" t="n">
-        <v>232.1646565879008</v>
+        <v>277.910563895485</v>
       </c>
       <c r="AC11" t="n">
-        <v>210.0071876083605</v>
+        <v>251.3871697273076</v>
       </c>
       <c r="AD11" t="n">
-        <v>169680.7270886179</v>
+        <v>203114.7515752043</v>
       </c>
       <c r="AE11" t="n">
-        <v>232164.6565879008</v>
+        <v>277910.563895485</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.098452335720988e-06</v>
+        <v>6.026538413183109e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.744140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>210007.1876083605</v>
+        <v>251387.1697273076</v>
       </c>
     </row>
     <row r="12">
@@ -17300,28 +17300,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>167.6852515621734</v>
+        <v>201.1192760487598</v>
       </c>
       <c r="AB12" t="n">
-        <v>229.4343589384537</v>
+        <v>275.1802662460379</v>
       </c>
       <c r="AC12" t="n">
-        <v>207.537465734579</v>
+        <v>248.9174478535261</v>
       </c>
       <c r="AD12" t="n">
-        <v>167685.2515621734</v>
+        <v>201119.2760487598</v>
       </c>
       <c r="AE12" t="n">
-        <v>229434.3589384537</v>
+        <v>275180.2662460379</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.109860217989612e-06</v>
+        <v>6.043313047867944e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>207537.465734579</v>
+        <v>248917.4478535261</v>
       </c>
     </row>
     <row r="13">
@@ -17406,28 +17406,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>164.8261291954865</v>
+        <v>198.2601536820728</v>
       </c>
       <c r="AB13" t="n">
-        <v>225.5223815807779</v>
+        <v>271.2682888883621</v>
       </c>
       <c r="AC13" t="n">
-        <v>203.9988420054239</v>
+        <v>245.3788241243709</v>
       </c>
       <c r="AD13" t="n">
-        <v>164826.1291954865</v>
+        <v>198260.1536820728</v>
       </c>
       <c r="AE13" t="n">
-        <v>225522.3815807779</v>
+        <v>271268.2888883621</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.135308570742697e-06</v>
+        <v>6.080733386780273e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.67578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>203998.8420054239</v>
+        <v>245378.8241243709</v>
       </c>
     </row>
     <row r="14">
@@ -17512,28 +17512,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>164.4698509597656</v>
+        <v>197.903875446352</v>
       </c>
       <c r="AB14" t="n">
-        <v>225.0349059807785</v>
+        <v>270.7808132883627</v>
       </c>
       <c r="AC14" t="n">
-        <v>203.5578903925119</v>
+        <v>244.9378725114589</v>
       </c>
       <c r="AD14" t="n">
-        <v>164469.8509597656</v>
+        <v>197903.875446352</v>
       </c>
       <c r="AE14" t="n">
-        <v>225034.9059807785</v>
+        <v>270780.8132883626</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.132090962923341e-06</v>
+        <v>6.076002079561473e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>203557.8903925119</v>
+        <v>244937.872511459</v>
       </c>
     </row>
     <row r="15">
@@ -17618,28 +17618,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>164.0791962607867</v>
+        <v>197.5132207473731</v>
       </c>
       <c r="AB15" t="n">
-        <v>224.5003949871669</v>
+        <v>270.246302294751</v>
       </c>
       <c r="AC15" t="n">
-        <v>203.0743923779395</v>
+        <v>244.4543744968866</v>
       </c>
       <c r="AD15" t="n">
-        <v>164079.1962607867</v>
+        <v>197513.2207473731</v>
       </c>
       <c r="AE15" t="n">
-        <v>224500.3949871669</v>
+        <v>270246.302294751</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.145643917071536e-06</v>
+        <v>6.095930919058843e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>203074.3923779395</v>
+        <v>244454.3744968866</v>
       </c>
     </row>
   </sheetData>
@@ -17915,28 +17915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.9882903955935</v>
+        <v>628.644252062227</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.2006838590371</v>
+        <v>860.1387994985854</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.0755659609434</v>
+        <v>778.0483596868269</v>
       </c>
       <c r="AD2" t="n">
-        <v>559988.2903955935</v>
+        <v>628644.252062227</v>
       </c>
       <c r="AE2" t="n">
-        <v>766200.6838590371</v>
+        <v>860138.7994985854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.939562555164192e-06</v>
+        <v>2.80610577976933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>693075.5659609435</v>
+        <v>778048.3596868268</v>
       </c>
     </row>
     <row r="3">
@@ -18021,28 +18021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.0827226184871</v>
+        <v>345.9074473141124</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.6911521526546</v>
+        <v>473.285829774723</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.1136106138919</v>
+        <v>428.1160944418567</v>
       </c>
       <c r="AD3" t="n">
-        <v>303082.7226184871</v>
+        <v>345907.4473141124</v>
       </c>
       <c r="AE3" t="n">
-        <v>414691.1521526546</v>
+        <v>473285.829774723</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.925389997803083e-06</v>
+        <v>4.232373820095581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.47200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>375113.6106138919</v>
+        <v>428116.0944418567</v>
       </c>
     </row>
     <row r="4">
@@ -18127,28 +18127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.1565274390324</v>
+        <v>298.8959112800893</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.4846616703377</v>
+        <v>408.9625721703786</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.0348974689375</v>
+        <v>369.9317582650118</v>
       </c>
       <c r="AD4" t="n">
-        <v>256156.5274390324</v>
+        <v>298895.9112800893</v>
       </c>
       <c r="AE4" t="n">
-        <v>350484.6616703377</v>
+        <v>408962.5721703786</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.3001455946134e-06</v>
+        <v>4.774559914279746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>317034.8974689375</v>
+        <v>369931.7582650118</v>
       </c>
     </row>
     <row r="5">
@@ -18233,28 +18233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.5179071356094</v>
+        <v>274.3425423226865</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.7730143919986</v>
+        <v>375.3675695446713</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.5406424922381</v>
+        <v>339.5430155390198</v>
       </c>
       <c r="AD5" t="n">
-        <v>231517.9071356094</v>
+        <v>274342.5423226865</v>
       </c>
       <c r="AE5" t="n">
-        <v>316773.0143919986</v>
+        <v>375367.5695446713</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.494487710990422e-06</v>
+        <v>5.055728745141198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.766276041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>286540.6424922381</v>
+        <v>339543.0155390198</v>
       </c>
     </row>
     <row r="6">
@@ -18339,28 +18339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.5327092604115</v>
+        <v>256.7754387477072</v>
       </c>
       <c r="AB6" t="n">
-        <v>304.4790702602053</v>
+        <v>351.3314834273061</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.4200151337204</v>
+        <v>317.8008997459428</v>
       </c>
       <c r="AD6" t="n">
-        <v>222532.7092604115</v>
+        <v>256775.4387477072</v>
       </c>
       <c r="AE6" t="n">
-        <v>304479.0702602052</v>
+        <v>351331.4834273061</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.614198690182467e-06</v>
+        <v>5.228923298582248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>275420.0151337204</v>
+        <v>317800.8997459428</v>
       </c>
     </row>
     <row r="7">
@@ -18445,28 +18445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>216.8796803123928</v>
+        <v>251.1224097996884</v>
       </c>
       <c r="AB7" t="n">
-        <v>296.7443466594941</v>
+        <v>343.5967598265948</v>
       </c>
       <c r="AC7" t="n">
-        <v>268.4234826977058</v>
+        <v>310.8043673099282</v>
       </c>
       <c r="AD7" t="n">
-        <v>216879.6803123928</v>
+        <v>251122.4097996884</v>
       </c>
       <c r="AE7" t="n">
-        <v>296744.346659494</v>
+        <v>343596.7598265948</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.687888703317192e-06</v>
+        <v>5.335535983601384e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>268423.4826977057</v>
+        <v>310804.3673099282</v>
       </c>
     </row>
     <row r="8">
@@ -18551,28 +18551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>211.9522287704047</v>
+        <v>246.1949582577004</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.0023900759295</v>
+        <v>336.8548032430303</v>
       </c>
       <c r="AC8" t="n">
-        <v>262.324968988079</v>
+        <v>304.7058536003015</v>
       </c>
       <c r="AD8" t="n">
-        <v>211952.2287704047</v>
+        <v>246194.9582577004</v>
       </c>
       <c r="AE8" t="n">
-        <v>290002.3900759295</v>
+        <v>336854.8032430303</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.754237948859954e-06</v>
+        <v>5.431528247890646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.160807291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>262324.968988079</v>
+        <v>304705.8536003015</v>
       </c>
     </row>
     <row r="9">
@@ -18657,28 +18657,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>208.4281009199405</v>
+        <v>242.6708304072362</v>
       </c>
       <c r="AB9" t="n">
-        <v>285.1805228773788</v>
+        <v>332.0329360444796</v>
       </c>
       <c r="AC9" t="n">
-        <v>257.9632940274233</v>
+        <v>300.3441786396458</v>
       </c>
       <c r="AD9" t="n">
-        <v>208428.1009199405</v>
+        <v>242670.8304072362</v>
       </c>
       <c r="AE9" t="n">
-        <v>285180.5228773788</v>
+        <v>332032.9360444796</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.800070690107222e-06</v>
+        <v>5.497837797832305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.063151041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>257963.2940274233</v>
+        <v>300344.1786396458</v>
       </c>
     </row>
     <row r="10">
@@ -18763,28 +18763,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>196.7697230157181</v>
+        <v>239.5090173482202</v>
       </c>
       <c r="AB10" t="n">
-        <v>269.2290158974963</v>
+        <v>327.7068039277885</v>
       </c>
       <c r="AC10" t="n">
-        <v>243.534176485615</v>
+        <v>296.4309265004058</v>
       </c>
       <c r="AD10" t="n">
-        <v>196769.7230157181</v>
+        <v>239509.0173482202</v>
       </c>
       <c r="AE10" t="n">
-        <v>269229.0158974963</v>
+        <v>327706.8039277885</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.83536284199167e-06</v>
+        <v>5.548897512879785e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.98828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>243534.176485615</v>
+        <v>296430.9265004058</v>
       </c>
     </row>
     <row r="11">
@@ -18869,28 +18869,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>194.5517239649308</v>
+        <v>237.2910182974329</v>
       </c>
       <c r="AB11" t="n">
-        <v>266.1942517449985</v>
+        <v>324.6720397752908</v>
       </c>
       <c r="AC11" t="n">
-        <v>240.7890459645124</v>
+        <v>293.6857959793032</v>
       </c>
       <c r="AD11" t="n">
-        <v>194551.7239649308</v>
+        <v>237291.0182974329</v>
       </c>
       <c r="AE11" t="n">
-        <v>266194.2517449985</v>
+        <v>324672.0397752908</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.857102807552489e-06</v>
+        <v>5.580350297349031e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>240789.0459645125</v>
+        <v>293685.7959793032</v>
       </c>
     </row>
     <row r="12">
@@ -18975,28 +18975,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>192.2281005419062</v>
+        <v>226.5560813752224</v>
       </c>
       <c r="AB12" t="n">
-        <v>263.0149676665872</v>
+        <v>309.9840254863373</v>
       </c>
       <c r="AC12" t="n">
-        <v>237.9131882963905</v>
+        <v>280.3995851593252</v>
       </c>
       <c r="AD12" t="n">
-        <v>192228.1005419062</v>
+        <v>226556.0813752224</v>
       </c>
       <c r="AE12" t="n">
-        <v>263014.9676665872</v>
+        <v>309984.0254863373</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.884960079439946e-06</v>
+        <v>5.620653432426509e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.884114583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>237913.1882963905</v>
+        <v>280399.5851593252</v>
       </c>
     </row>
     <row r="13">
@@ -19081,28 +19081,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>189.5781165276805</v>
+        <v>223.9060973609967</v>
       </c>
       <c r="AB13" t="n">
-        <v>259.3891426292817</v>
+        <v>306.3582004490318</v>
       </c>
       <c r="AC13" t="n">
-        <v>234.6334069117669</v>
+        <v>277.1198037747016</v>
       </c>
       <c r="AD13" t="n">
-        <v>189578.1165276805</v>
+        <v>223906.0973609967</v>
       </c>
       <c r="AE13" t="n">
-        <v>259389.1426292817</v>
+        <v>306358.2004490318</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.907641169051017e-06</v>
+        <v>5.653467809297022e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>234633.4069117669</v>
+        <v>277119.8037747016</v>
       </c>
     </row>
     <row r="14">
@@ -19187,28 +19187,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>188.5090254938717</v>
+        <v>222.837006327188</v>
       </c>
       <c r="AB14" t="n">
-        <v>257.9263651118576</v>
+        <v>304.8954229316077</v>
       </c>
       <c r="AC14" t="n">
-        <v>233.3102348275842</v>
+        <v>275.796631690519</v>
       </c>
       <c r="AD14" t="n">
-        <v>188509.0254938717</v>
+        <v>222837.006327188</v>
       </c>
       <c r="AE14" t="n">
-        <v>257926.3651118576</v>
+        <v>304895.4229316077</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.917052409553536e-06</v>
+        <v>5.667083733309683e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.822265625</v>
       </c>
       <c r="AH14" t="n">
-        <v>233310.2348275842</v>
+        <v>275796.6316905189</v>
       </c>
     </row>
     <row r="15">
@@ -19293,28 +19293,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>185.9853810222958</v>
+        <v>220.3133618556121</v>
       </c>
       <c r="AB15" t="n">
-        <v>254.4734034105128</v>
+        <v>301.4424612302628</v>
       </c>
       <c r="AC15" t="n">
-        <v>230.1868189447524</v>
+        <v>272.6732158076871</v>
       </c>
       <c r="AD15" t="n">
-        <v>185985.3810222958</v>
+        <v>220313.3618556121</v>
       </c>
       <c r="AE15" t="n">
-        <v>254473.4034105128</v>
+        <v>301442.4612302628</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.933145630812844e-06</v>
+        <v>5.690366963371333e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.789713541666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>230186.8189447524</v>
+        <v>272673.2158076871</v>
       </c>
     </row>
     <row r="16">
@@ -19399,28 +19399,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>184.7617530808701</v>
+        <v>219.0897339141864</v>
       </c>
       <c r="AB16" t="n">
-        <v>252.7991816784002</v>
+        <v>299.7682394981503</v>
       </c>
       <c r="AC16" t="n">
-        <v>228.6723825849671</v>
+        <v>271.1587794479018</v>
       </c>
       <c r="AD16" t="n">
-        <v>184761.7530808701</v>
+        <v>219089.7339141864</v>
       </c>
       <c r="AE16" t="n">
-        <v>252799.1816784002</v>
+        <v>299768.2394981502</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.940392285999784e-06</v>
+        <v>5.700851224861082e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH16" t="n">
-        <v>228672.3825849671</v>
+        <v>271158.7794479018</v>
       </c>
     </row>
     <row r="17">
@@ -19505,28 +19505,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>182.9354598702586</v>
+        <v>217.2634407035749</v>
       </c>
       <c r="AB17" t="n">
-        <v>250.3003667372727</v>
+        <v>297.2694245570227</v>
       </c>
       <c r="AC17" t="n">
-        <v>226.4120510347112</v>
+        <v>268.898447897646</v>
       </c>
       <c r="AD17" t="n">
-        <v>182935.4598702586</v>
+        <v>217263.4407035749</v>
       </c>
       <c r="AE17" t="n">
-        <v>250300.3667372727</v>
+        <v>297269.4245570227</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.956579619664117e-06</v>
+        <v>5.72427061416286e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.744140625</v>
       </c>
       <c r="AH17" t="n">
-        <v>226412.0510347112</v>
+        <v>268898.4478976459</v>
       </c>
     </row>
     <row r="18">
@@ -19611,28 +19611,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>180.918805773482</v>
+        <v>215.2467866067983</v>
       </c>
       <c r="AB18" t="n">
-        <v>247.5410916335646</v>
+        <v>294.5101494533146</v>
       </c>
       <c r="AC18" t="n">
-        <v>223.9161172742332</v>
+        <v>266.4025141371679</v>
       </c>
       <c r="AD18" t="n">
-        <v>180918.805773482</v>
+        <v>215246.7866067982</v>
       </c>
       <c r="AE18" t="n">
-        <v>247541.0916335646</v>
+        <v>294510.1494533146</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.966743759406838e-06</v>
+        <v>5.738975812096533e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH18" t="n">
-        <v>223916.1172742333</v>
+        <v>266402.5141371679</v>
       </c>
     </row>
     <row r="19">
@@ -19717,28 +19717,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>180.244896577072</v>
+        <v>214.5728774103882</v>
       </c>
       <c r="AB19" t="n">
-        <v>246.6190193402614</v>
+        <v>293.5880771600114</v>
       </c>
       <c r="AC19" t="n">
-        <v>223.082046266466</v>
+        <v>265.5684431294007</v>
       </c>
       <c r="AD19" t="n">
-        <v>180244.896577072</v>
+        <v>214572.8774103882</v>
       </c>
       <c r="AE19" t="n">
-        <v>246619.0193402614</v>
+        <v>293588.0771600114</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.966367309786737e-06</v>
+        <v>5.738431175136027e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH19" t="n">
-        <v>223082.046266466</v>
+        <v>265568.4431294007</v>
       </c>
     </row>
     <row r="20">
@@ -19823,28 +19823,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>179.5031151534715</v>
+        <v>213.8310959867877</v>
       </c>
       <c r="AB20" t="n">
-        <v>245.6040812714049</v>
+        <v>292.573139091155</v>
       </c>
       <c r="AC20" t="n">
-        <v>222.1639724624263</v>
+        <v>264.6503693253611</v>
       </c>
       <c r="AD20" t="n">
-        <v>179503.1151534715</v>
+        <v>213831.0959867877</v>
       </c>
       <c r="AE20" t="n">
-        <v>245604.0812714049</v>
+        <v>292573.139091155</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.978413697629962e-06</v>
+        <v>5.755859557872233e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.701822916666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>222163.9724624263</v>
+        <v>264650.369325361</v>
       </c>
     </row>
     <row r="21">
@@ -19929,28 +19929,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>179.8178520274661</v>
+        <v>214.1458328607824</v>
       </c>
       <c r="AB21" t="n">
-        <v>246.0347181476151</v>
+        <v>293.0037759673651</v>
       </c>
       <c r="AC21" t="n">
-        <v>222.5535099595738</v>
+        <v>265.0399068225086</v>
       </c>
       <c r="AD21" t="n">
-        <v>179817.8520274661</v>
+        <v>214145.8328607824</v>
       </c>
       <c r="AE21" t="n">
-        <v>246034.7181476151</v>
+        <v>293003.7759673651</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.978790147250062e-06</v>
+        <v>5.756404194832739e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.698567708333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>222553.5099595738</v>
+        <v>265039.9068225086</v>
       </c>
     </row>
   </sheetData>
@@ -20226,28 +20226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.6225971302154</v>
+        <v>341.0268603288168</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.3791469914335</v>
+        <v>466.6079953451401</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.1675231382324</v>
+        <v>422.0755831578336</v>
       </c>
       <c r="AD2" t="n">
-        <v>292622.5971302154</v>
+        <v>341026.8603288168</v>
       </c>
       <c r="AE2" t="n">
-        <v>400379.1469914335</v>
+        <v>466607.9953451401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.885036247791281e-06</v>
+        <v>4.332414544240892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48763020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>362167.5231382324</v>
+        <v>422075.5831578337</v>
       </c>
     </row>
     <row r="3">
@@ -20332,28 +20332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.5391958803658</v>
+        <v>238.9329011917883</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.6500867345394</v>
+        <v>326.9185363861079</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.7241837199658</v>
+        <v>295.7178901065625</v>
       </c>
       <c r="AD3" t="n">
-        <v>198539.1958803658</v>
+        <v>238932.9011917883</v>
       </c>
       <c r="AE3" t="n">
-        <v>271650.0867345394</v>
+        <v>326918.5363861079</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.686016631803633e-06</v>
+        <v>5.535234463055936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.990885416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>245724.1837199658</v>
+        <v>295717.8901065625</v>
       </c>
     </row>
     <row r="4">
@@ -20438,28 +20438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5240552052464</v>
+        <v>213.8220407920211</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.3692206078247</v>
+        <v>292.5607493741883</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.6652107814765</v>
+        <v>264.6391620655926</v>
       </c>
       <c r="AD4" t="n">
-        <v>181524.0552052464</v>
+        <v>213822.0407920211</v>
       </c>
       <c r="AE4" t="n">
-        <v>248369.2206078247</v>
+        <v>292560.7493741883</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.97160834111527e-06</v>
+        <v>5.964103138825124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.346354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>224665.2107814765</v>
+        <v>264639.1620655926</v>
       </c>
     </row>
     <row r="5">
@@ -20544,28 +20544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.7883000501346</v>
+        <v>206.0862856369093</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.7848191271746</v>
+        <v>281.9763478935383</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.0909697228356</v>
+        <v>255.0649210069517</v>
       </c>
       <c r="AD5" t="n">
-        <v>173788.3000501346</v>
+        <v>206086.2856369093</v>
       </c>
       <c r="AE5" t="n">
-        <v>237784.8191271746</v>
+        <v>281976.3478935383</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.10895708117281e-06</v>
+        <v>6.170357628526598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.06640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>215090.9697228356</v>
+        <v>255064.9210069517</v>
       </c>
     </row>
     <row r="6">
@@ -20650,28 +20650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.3911145343587</v>
+        <v>192.774351467154</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.454198862388</v>
+        <v>263.7623722814008</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.5097981289272</v>
+        <v>238.5892616637555</v>
       </c>
       <c r="AD6" t="n">
-        <v>160391.1145343587</v>
+        <v>192774.351467154</v>
       </c>
       <c r="AE6" t="n">
-        <v>219454.198862388</v>
+        <v>263762.3722814008</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.18949292504643e-06</v>
+        <v>6.291297066149923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.91015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>198509.7981289272</v>
+        <v>238589.2616637555</v>
       </c>
     </row>
     <row r="7">
@@ -20756,28 +20756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.8304090848671</v>
+        <v>188.2136460176624</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.2140404622725</v>
+        <v>257.5222138812854</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.8651916883995</v>
+        <v>232.9446552232278</v>
       </c>
       <c r="AD7" t="n">
-        <v>155830.4090848671</v>
+        <v>188213.6460176624</v>
       </c>
       <c r="AE7" t="n">
-        <v>213214.0404622726</v>
+        <v>257522.2138812855</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.255672822034867e-06</v>
+        <v>6.390678399215867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>192865.1916883995</v>
+        <v>232944.6552232278</v>
       </c>
     </row>
     <row r="8">
@@ -20862,28 +20862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>151.8899502984781</v>
+        <v>184.2731872312734</v>
       </c>
       <c r="AB8" t="n">
-        <v>207.8225309099653</v>
+        <v>252.1307043289782</v>
       </c>
       <c r="AC8" t="n">
-        <v>187.9882402407315</v>
+        <v>228.0677037755599</v>
       </c>
       <c r="AD8" t="n">
-        <v>151889.9502984781</v>
+        <v>184273.1872312734</v>
       </c>
       <c r="AE8" t="n">
-        <v>207822.5309099653</v>
+        <v>252130.7043289782</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.301082412891547e-06</v>
+        <v>6.458869283134961e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.705078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>187988.2402407315</v>
+        <v>228067.7037755599</v>
       </c>
     </row>
     <row r="9">
@@ -20968,28 +20968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>149.715134427476</v>
+        <v>182.0983713602713</v>
       </c>
       <c r="AB9" t="n">
-        <v>204.846851889157</v>
+        <v>249.1550253081699</v>
       </c>
       <c r="AC9" t="n">
-        <v>185.2965558492765</v>
+        <v>225.3760193841049</v>
       </c>
       <c r="AD9" t="n">
-        <v>149715.134427476</v>
+        <v>182098.3713602713</v>
       </c>
       <c r="AE9" t="n">
-        <v>204846.851889157</v>
+        <v>249155.0253081699</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.317983740430133e-06</v>
+        <v>6.484249746656416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.67578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>185296.5558492765</v>
+        <v>225376.0193841049</v>
       </c>
     </row>
     <row r="10">
@@ -21074,28 +21074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.1967162280088</v>
+        <v>181.5799531608041</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.1375292376496</v>
+        <v>248.4457026566625</v>
       </c>
       <c r="AC10" t="n">
-        <v>184.6549299560881</v>
+        <v>224.7343934909165</v>
       </c>
       <c r="AD10" t="n">
-        <v>149196.7162280088</v>
+        <v>181579.9531608041</v>
       </c>
       <c r="AE10" t="n">
-        <v>204137.5292376496</v>
+        <v>248445.7026566625</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.329488860983507e-06</v>
+        <v>6.501526809174034e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH10" t="n">
-        <v>184654.9299560881</v>
+        <v>224734.3934909165</v>
       </c>
     </row>
   </sheetData>
@@ -21371,28 +21371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6095352079448</v>
+        <v>264.8152438223291</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.688919261599</v>
+        <v>362.3318994217369</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2280820549825</v>
+        <v>327.7514514769404</v>
       </c>
       <c r="AD2" t="n">
-        <v>225609.5352079448</v>
+        <v>264815.2438223292</v>
       </c>
       <c r="AE2" t="n">
-        <v>308688.919261599</v>
+        <v>362331.8994217369</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.368074860940615e-06</v>
+        <v>5.165773867957943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25065104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279228.0820549825</v>
+        <v>327751.4514769404</v>
       </c>
     </row>
     <row r="3">
@@ -21477,28 +21477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.0138779356274</v>
+        <v>199.3613945579281</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.8840000405855</v>
+        <v>272.7750552380252</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.9441937209987</v>
+        <v>246.7417868083824</v>
       </c>
       <c r="AD3" t="n">
-        <v>168013.8779356274</v>
+        <v>199361.3945579281</v>
       </c>
       <c r="AE3" t="n">
-        <v>229884.0000405855</v>
+        <v>272775.0552380251</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065510395957949e-06</v>
+        <v>6.235463352345367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.492838541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>207944.1937209987</v>
+        <v>246741.7868083824</v>
       </c>
     </row>
     <row r="4">
@@ -21583,28 +21583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.3523369656352</v>
+        <v>187.699853587936</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.9281652145722</v>
+        <v>256.8192204120119</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.5111613766202</v>
+        <v>232.308754464004</v>
       </c>
       <c r="AD4" t="n">
-        <v>156352.3369656352</v>
+        <v>187699.853587936</v>
       </c>
       <c r="AE4" t="n">
-        <v>213928.1652145722</v>
+        <v>256819.2204120119</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295761695611634e-06</v>
+        <v>6.588610534614998e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.037109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>193511.1613766202</v>
+        <v>232308.754464004</v>
       </c>
     </row>
     <row r="5">
@@ -21689,28 +21689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.5005261522982</v>
+        <v>172.9332941206195</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.6072624441244</v>
+        <v>236.6149622942133</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.1296570460113</v>
+        <v>214.0327623841073</v>
       </c>
       <c r="AD5" t="n">
-        <v>141500.5261522982</v>
+        <v>172933.2941206195</v>
       </c>
       <c r="AE5" t="n">
-        <v>193607.2624441244</v>
+        <v>236614.9622942133</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.417622010352346e-06</v>
+        <v>6.775513396166269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.815755208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>175129.6570460114</v>
+        <v>214032.7623841073</v>
       </c>
     </row>
     <row r="6">
@@ -21795,28 +21795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.6733792674515</v>
+        <v>169.1061472357728</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.3707912344754</v>
+        <v>231.3784910845644</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.3929472991762</v>
+        <v>209.2960526372721</v>
       </c>
       <c r="AD6" t="n">
-        <v>137673.3792674515</v>
+        <v>169106.1472357728</v>
       </c>
       <c r="AE6" t="n">
-        <v>188370.7912344754</v>
+        <v>231378.4910845644</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.478393081149932e-06</v>
+        <v>6.868720828428128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>170392.9472991762</v>
+        <v>209296.0526372721</v>
       </c>
     </row>
     <row r="7">
@@ -21901,28 +21901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.147587117034</v>
+        <v>168.5803550853553</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.651379217962</v>
+        <v>230.6590790680509</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.7421949558174</v>
+        <v>208.6453002939134</v>
       </c>
       <c r="AD7" t="n">
-        <v>137147.587117034</v>
+        <v>168580.3550853553</v>
       </c>
       <c r="AE7" t="n">
-        <v>187651.379217962</v>
+        <v>230659.0790680509</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.491438180116954e-06</v>
+        <v>6.888728706557638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.685546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>169742.1949558174</v>
+        <v>208645.3002939133</v>
       </c>
     </row>
   </sheetData>
@@ -40955,28 +40955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.3583219635478</v>
+        <v>220.5290302134121</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.5107011917838</v>
+        <v>301.7375481920212</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.697750060581</v>
+        <v>272.9401400839725</v>
       </c>
       <c r="AD2" t="n">
-        <v>182358.3219635478</v>
+        <v>220529.0302134121</v>
       </c>
       <c r="AE2" t="n">
-        <v>249510.7011917838</v>
+        <v>301737.5481920212</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.765309777592527e-06</v>
+        <v>5.88322225537655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.485677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>225697.750060581</v>
+        <v>272940.1400839725</v>
       </c>
     </row>
     <row r="3">
@@ -41061,28 +41061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.5394041602621</v>
+        <v>177.1271931746067</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.5016776342256</v>
+        <v>242.3532400016438</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.3660789267441</v>
+        <v>219.2233869208658</v>
       </c>
       <c r="AD3" t="n">
-        <v>146539.4041602621</v>
+        <v>177127.1931746067</v>
       </c>
       <c r="AE3" t="n">
-        <v>200501.6776342256</v>
+        <v>242353.2400016438</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.37113846616671e-06</v>
+        <v>6.829817631081366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.170572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>181366.0789267441</v>
+        <v>219223.3869208658</v>
       </c>
     </row>
     <row r="4">
@@ -41167,28 +41167,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.8427865326527</v>
+        <v>160.5158268930179</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.6566287933591</v>
+        <v>219.6248358134264</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.7013294840151</v>
+        <v>198.6641497288491</v>
       </c>
       <c r="AD4" t="n">
-        <v>129842.7865326527</v>
+        <v>160515.8268930179</v>
       </c>
       <c r="AE4" t="n">
-        <v>177656.6287933591</v>
+        <v>219624.8358134264</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.56324386886381e-06</v>
+        <v>7.129978533446293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.825520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>160701.3294840151</v>
+        <v>198664.1497288491</v>
       </c>
     </row>
     <row r="5">
@@ -41273,28 +41273,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.9991172603194</v>
+        <v>158.6721576206846</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.1340391580061</v>
+        <v>217.1022461780735</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.4194922629826</v>
+        <v>196.3823125078166</v>
       </c>
       <c r="AD5" t="n">
-        <v>127999.1172603194</v>
+        <v>158672.1576206846</v>
       </c>
       <c r="AE5" t="n">
-        <v>175134.0391580061</v>
+        <v>217102.2461780735</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.603727531682331e-06</v>
+        <v>7.193233458045185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.757161458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>158419.4922629826</v>
+        <v>196382.3125078166</v>
       </c>
     </row>
   </sheetData>
@@ -41570,28 +41570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7332598811232</v>
+        <v>149.815033171761</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.1925725447904</v>
+        <v>204.9835377583092</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.4268252703929</v>
+        <v>185.4201966109167</v>
       </c>
       <c r="AD2" t="n">
-        <v>120733.2598811232</v>
+        <v>149815.033171761</v>
       </c>
       <c r="AE2" t="n">
-        <v>165192.5725447903</v>
+        <v>204983.5377583092</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.617144308748741e-06</v>
+        <v>7.524449883026121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>149426.8252703929</v>
+        <v>185420.1966109167</v>
       </c>
     </row>
     <row r="3">
@@ -41676,28 +41676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.9748230911803</v>
+        <v>147.0565963818181</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.4183576351499</v>
+        <v>201.2093228486688</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.0128161345835</v>
+        <v>182.0061874751073</v>
       </c>
       <c r="AD3" t="n">
-        <v>117974.8230911803</v>
+        <v>147056.5963818181</v>
       </c>
       <c r="AE3" t="n">
-        <v>161418.3576351499</v>
+        <v>201209.3228486688</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.729952884310621e-06</v>
+        <v>7.70829132622783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>146012.8161345835</v>
+        <v>182006.1874751073</v>
       </c>
     </row>
   </sheetData>
@@ -41973,28 +41973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.229275951923</v>
+        <v>429.2243045718998</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.9322728372125</v>
+        <v>587.2836295551533</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.4559296050505</v>
+        <v>531.2341042081596</v>
       </c>
       <c r="AD2" t="n">
-        <v>371229.275951923</v>
+        <v>429224.3045718998</v>
       </c>
       <c r="AE2" t="n">
-        <v>507932.2728372125</v>
+        <v>587283.6295551533</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488799878162324e-06</v>
+        <v>3.676905166907192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.880859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>459455.9296050505</v>
+        <v>531234.1042081596</v>
       </c>
     </row>
     <row r="3">
@@ -42079,28 +42079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.8233667887951</v>
+        <v>279.309344984904</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.4004224667301</v>
+        <v>382.1633680669861</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.3446628489634</v>
+        <v>345.6902325883279</v>
       </c>
       <c r="AD3" t="n">
-        <v>237823.3667887951</v>
+        <v>279309.344984904</v>
       </c>
       <c r="AE3" t="n">
-        <v>325400.4224667301</v>
+        <v>382163.3680669861</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.369673336404797e-06</v>
+        <v>4.978290705544665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>294344.6628489633</v>
+        <v>345690.232588328</v>
       </c>
     </row>
     <row r="4">
@@ -42185,28 +42185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.2560980446726</v>
+        <v>247.6567353862064</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.2086927214347</v>
+        <v>338.8548711993067</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.2750911705718</v>
+        <v>306.5150378779445</v>
       </c>
       <c r="AD4" t="n">
-        <v>206256.0980446726</v>
+        <v>247656.7353862064</v>
       </c>
       <c r="AE4" t="n">
-        <v>282208.6927214346</v>
+        <v>338854.8711993067</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.686768086046021e-06</v>
+        <v>5.446760401957483e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.694661458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>255275.0911705717</v>
+        <v>306515.0378779445</v>
       </c>
     </row>
     <row r="5">
@@ -42291,28 +42291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.8582782232868</v>
+        <v>228.9618094341505</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.981936922386</v>
+        <v>313.2756487497925</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.4061169776025</v>
+        <v>283.3770605183396</v>
       </c>
       <c r="AD5" t="n">
-        <v>195858.2782232868</v>
+        <v>228961.8094341505</v>
       </c>
       <c r="AE5" t="n">
-        <v>267981.9369223859</v>
+        <v>313275.6487497925</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.849845385861508e-06</v>
+        <v>5.687687674398361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.326822916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>242406.1169776025</v>
+        <v>283377.0605183396</v>
       </c>
     </row>
     <row r="6">
@@ -42397,28 +42397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.2423678298502</v>
+        <v>222.345899040714</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.9297564487234</v>
+        <v>304.2234682761299</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.2178639035284</v>
+        <v>275.1888074442654</v>
       </c>
       <c r="AD6" t="n">
-        <v>189242.3678298502</v>
+        <v>222345.899040714</v>
       </c>
       <c r="AE6" t="n">
-        <v>258929.7564487234</v>
+        <v>304223.4682761299</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.951473268355218e-06</v>
+        <v>5.837830757223836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>234217.8639035284</v>
+        <v>275188.8074442654</v>
       </c>
     </row>
     <row r="7">
@@ -42503,28 +42503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.6123906007802</v>
+        <v>217.9276870877424</v>
       </c>
       <c r="AB7" t="n">
-        <v>241.6488644086481</v>
+        <v>298.1782757643225</v>
       </c>
       <c r="AC7" t="n">
-        <v>218.586235945868</v>
+        <v>269.720559621302</v>
       </c>
       <c r="AD7" t="n">
-        <v>176612.3906007802</v>
+        <v>217927.6870877424</v>
       </c>
       <c r="AE7" t="n">
-        <v>241648.8644086481</v>
+        <v>298178.2757643225</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.013808975349906e-06</v>
+        <v>5.92992433418946e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.985026041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>218586.235945868</v>
+        <v>269720.5596213019</v>
       </c>
     </row>
     <row r="8">
@@ -42609,28 +42609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.296817855626</v>
+        <v>205.4856004125104</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.7441073890986</v>
+        <v>281.1544638691543</v>
       </c>
       <c r="AC8" t="n">
-        <v>213.245020648884</v>
+        <v>254.3214764403333</v>
       </c>
       <c r="AD8" t="n">
-        <v>172296.8178556261</v>
+        <v>205485.6004125104</v>
       </c>
       <c r="AE8" t="n">
-        <v>235744.1073890986</v>
+        <v>281154.4638691543</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.07191018724069e-06</v>
+        <v>6.015761949370692e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>213245.020648884</v>
+        <v>254321.4764403333</v>
       </c>
     </row>
     <row r="9">
@@ -42715,28 +42715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>169.2795181737968</v>
+        <v>202.4683007306812</v>
       </c>
       <c r="AB9" t="n">
-        <v>231.6157048505546</v>
+        <v>277.0260613306104</v>
       </c>
       <c r="AC9" t="n">
-        <v>209.510627054368</v>
+        <v>250.5870828458173</v>
       </c>
       <c r="AD9" t="n">
-        <v>169279.5181737968</v>
+        <v>202468.3007306812</v>
       </c>
       <c r="AE9" t="n">
-        <v>231615.7048505546</v>
+        <v>277026.0613306104</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.106180054593219e-06</v>
+        <v>6.066391593579282e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.805989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>209510.627054368</v>
+        <v>250587.0828458173</v>
       </c>
     </row>
     <row r="10">
@@ -42821,28 +42821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>166.872505063048</v>
+        <v>200.0612876199323</v>
       </c>
       <c r="AB10" t="n">
-        <v>228.3223233225059</v>
+        <v>273.7326798025616</v>
       </c>
       <c r="AC10" t="n">
-        <v>206.5315612370651</v>
+        <v>247.6080170285144</v>
       </c>
       <c r="AD10" t="n">
-        <v>166872.505063048</v>
+        <v>200061.2876199323</v>
       </c>
       <c r="AE10" t="n">
-        <v>228322.3233225059</v>
+        <v>273732.6798025616</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.127352530112743e-06</v>
+        <v>6.097671402501257e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>206531.5612370651</v>
+        <v>247608.0170285144</v>
       </c>
     </row>
     <row r="11">
@@ -42927,28 +42927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>163.5581586750953</v>
+        <v>196.7469412319796</v>
       </c>
       <c r="AB11" t="n">
-        <v>223.7874883758682</v>
+        <v>269.1978448559239</v>
       </c>
       <c r="AC11" t="n">
-        <v>202.4295245730523</v>
+        <v>243.5059803645016</v>
       </c>
       <c r="AD11" t="n">
-        <v>163558.1586750953</v>
+        <v>196746.9412319796</v>
       </c>
       <c r="AE11" t="n">
-        <v>223787.4883758682</v>
+        <v>269197.8448559239</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.163296500180769e-06</v>
+        <v>6.150774333926931e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.698567708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>202429.5245730523</v>
+        <v>243505.9803645016</v>
       </c>
     </row>
     <row r="12">
@@ -43033,28 +43033,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>161.1032836296896</v>
+        <v>194.2920661865739</v>
       </c>
       <c r="AB12" t="n">
-        <v>220.4286200373024</v>
+        <v>265.8389765173581</v>
       </c>
       <c r="AC12" t="n">
-        <v>199.3912219145167</v>
+        <v>240.467677705966</v>
       </c>
       <c r="AD12" t="n">
-        <v>161103.2836296896</v>
+        <v>194292.0661865739</v>
       </c>
       <c r="AE12" t="n">
-        <v>220428.6200373023</v>
+        <v>265838.9765173581</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.176295415383454e-06</v>
+        <v>6.169978681730191e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.67578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>199391.2219145167</v>
+        <v>240467.677705966</v>
       </c>
     </row>
     <row r="13">
@@ -43139,28 +43139,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>160.4442688244522</v>
+        <v>193.6330513813365</v>
       </c>
       <c r="AB13" t="n">
-        <v>219.5269269070957</v>
+        <v>264.9372833871514</v>
       </c>
       <c r="AC13" t="n">
-        <v>198.5755851111225</v>
+        <v>239.6520409025717</v>
       </c>
       <c r="AD13" t="n">
-        <v>160444.2688244522</v>
+        <v>193633.0513813365</v>
       </c>
       <c r="AE13" t="n">
-        <v>219526.9269070957</v>
+        <v>264937.2833871514</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.185355265373202e-06</v>
+        <v>6.183363530199128e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.659505208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>198575.5851111225</v>
+        <v>239652.0409025717</v>
       </c>
     </row>
     <row r="14">
@@ -43245,28 +43245,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>160.8706067573427</v>
+        <v>194.059389314227</v>
       </c>
       <c r="AB14" t="n">
-        <v>220.1102612755783</v>
+        <v>265.5206177556341</v>
       </c>
       <c r="AC14" t="n">
-        <v>199.1032468661923</v>
+        <v>240.1797026576415</v>
       </c>
       <c r="AD14" t="n">
-        <v>160870.6067573427</v>
+        <v>194059.389314227</v>
       </c>
       <c r="AE14" t="n">
-        <v>220110.2612755783</v>
+        <v>265520.6177556341</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.184567452330615e-06</v>
+        <v>6.182199630332264e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.659505208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>199103.2468661923</v>
+        <v>240179.7026576415</v>
       </c>
     </row>
   </sheetData>
@@ -43542,28 +43542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.9609275095771</v>
+        <v>582.6638969030746</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.5382124264278</v>
+        <v>797.2264490597288</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.2482496966372</v>
+        <v>721.1402756758163</v>
       </c>
       <c r="AD2" t="n">
-        <v>522960.9275095771</v>
+        <v>582663.8969030746</v>
       </c>
       <c r="AE2" t="n">
-        <v>715538.2124264278</v>
+        <v>797226.4490597288</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035597249917694e-06</v>
+        <v>2.956031254629699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>647248.2496966373</v>
+        <v>721140.2756758162</v>
       </c>
     </row>
     <row r="3">
@@ -43648,28 +43648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.7069649256798</v>
+        <v>333.2666277831925</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.7580944974595</v>
+        <v>455.9901028189192</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.796620215613</v>
+        <v>412.4710473920096</v>
       </c>
       <c r="AD3" t="n">
-        <v>290706.9649256798</v>
+        <v>333266.6277831924</v>
       </c>
       <c r="AE3" t="n">
-        <v>397758.0944974595</v>
+        <v>455990.1028189192</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.009886418949672e-06</v>
+        <v>4.370863798160684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.263671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>359796.620215613</v>
+        <v>412471.0473920095</v>
       </c>
     </row>
     <row r="4">
@@ -43754,28 +43754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.354876824587</v>
+        <v>281.4708976959678</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.4418549982394</v>
+        <v>385.1208998472389</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.1414393634351</v>
+        <v>348.3655016863953</v>
       </c>
       <c r="AD4" t="n">
-        <v>247354.876824587</v>
+        <v>281470.8976959678</v>
       </c>
       <c r="AE4" t="n">
-        <v>338441.8549982394</v>
+        <v>385120.8998472389</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.375327890649502e-06</v>
+        <v>4.90154658038897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.150390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>306141.4393634351</v>
+        <v>348365.5016863953</v>
       </c>
     </row>
     <row r="5">
@@ -43860,28 +43860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.5619708466062</v>
+        <v>267.1215441955705</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.2555954871381</v>
+        <v>365.4874813391972</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.9315526898733</v>
+        <v>330.6058690850854</v>
       </c>
       <c r="AD5" t="n">
-        <v>224561.9708466062</v>
+        <v>267121.5441955705</v>
       </c>
       <c r="AE5" t="n">
-        <v>307255.5954871381</v>
+        <v>365487.4813391973</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55800117889208e-06</v>
+        <v>5.166819069557874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.681640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>277931.5526898733</v>
+        <v>330605.8690850853</v>
       </c>
     </row>
     <row r="6">
@@ -43966,28 +43966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.1578273211293</v>
+        <v>250.1885073379348</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.7566755509414</v>
+        <v>342.3189532775554</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.530073533548</v>
+        <v>309.6485128245159</v>
       </c>
       <c r="AD6" t="n">
-        <v>216157.8273211293</v>
+        <v>250188.5073379348</v>
       </c>
       <c r="AE6" t="n">
-        <v>295756.6755509414</v>
+        <v>342318.9532775554</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.671211169995143e-06</v>
+        <v>5.331219110897356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.414713541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>267530.073533548</v>
+        <v>309648.5128245159</v>
       </c>
     </row>
     <row r="7">
@@ -44072,28 +44072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.1104240390416</v>
+        <v>244.1411040558471</v>
       </c>
       <c r="AB7" t="n">
-        <v>287.4823515877896</v>
+        <v>334.0446293144035</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.0454394363501</v>
+        <v>302.163878727318</v>
       </c>
       <c r="AD7" t="n">
-        <v>210110.4240390416</v>
+        <v>244141.1040558471</v>
       </c>
       <c r="AE7" t="n">
-        <v>287482.3515877896</v>
+        <v>334044.6293144035</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.755667911052752e-06</v>
+        <v>5.453864573422201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.225911458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>260045.4394363501</v>
+        <v>302163.878727318</v>
       </c>
     </row>
     <row r="8">
@@ -44178,28 +44178,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.9146570243221</v>
+        <v>239.9453370411276</v>
       </c>
       <c r="AB8" t="n">
-        <v>281.7415180540766</v>
+        <v>328.3037957806906</v>
       </c>
       <c r="AC8" t="n">
-        <v>254.8525029977824</v>
+        <v>296.9709422887504</v>
       </c>
       <c r="AD8" t="n">
-        <v>205914.6570243221</v>
+        <v>239945.3370411276</v>
       </c>
       <c r="AE8" t="n">
-        <v>281741.5180540766</v>
+        <v>328303.7957806906</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.811466297279575e-06</v>
+        <v>5.534893261022884e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.10546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>254852.5029977824</v>
+        <v>296970.9422887504</v>
       </c>
     </row>
     <row r="9">
@@ -44284,28 +44284,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>202.267473530343</v>
+        <v>236.2981535471485</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.751280695237</v>
+        <v>323.313558421851</v>
       </c>
       <c r="AC9" t="n">
-        <v>250.3385268886267</v>
+        <v>292.4569661795947</v>
       </c>
       <c r="AD9" t="n">
-        <v>202267.4735303429</v>
+        <v>236298.1535471485</v>
       </c>
       <c r="AE9" t="n">
-        <v>276751.280695237</v>
+        <v>323313.558421851</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.858439428541953e-06</v>
+        <v>5.603106186809174e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.004557291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>250338.5268886267</v>
+        <v>292456.9661795947</v>
       </c>
     </row>
     <row r="10">
@@ -44390,28 +44390,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>190.7255321402507</v>
+        <v>233.1997646346401</v>
       </c>
       <c r="AB10" t="n">
-        <v>260.9590872908037</v>
+        <v>319.0742060204875</v>
       </c>
       <c r="AC10" t="n">
-        <v>236.0535182582249</v>
+        <v>288.6222116214476</v>
       </c>
       <c r="AD10" t="n">
-        <v>190725.5321402507</v>
+        <v>233199.7646346401</v>
       </c>
       <c r="AE10" t="n">
-        <v>260959.0872908037</v>
+        <v>319074.2060204875</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.891842544106311e-06</v>
+        <v>5.651613156257203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.936197916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>236053.5182582249</v>
+        <v>288622.2116214476</v>
       </c>
     </row>
     <row r="11">
@@ -44496,28 +44496,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>188.7518639828425</v>
+        <v>222.8677953456686</v>
       </c>
       <c r="AB11" t="n">
-        <v>258.2586274457454</v>
+        <v>304.9375498250085</v>
       </c>
       <c r="AC11" t="n">
-        <v>233.6107865106589</v>
+        <v>275.834738052339</v>
       </c>
       <c r="AD11" t="n">
-        <v>188751.8639828425</v>
+        <v>222867.7953456686</v>
       </c>
       <c r="AE11" t="n">
-        <v>258258.6274457454</v>
+        <v>304937.5498250086</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.913668443480748e-06</v>
+        <v>5.683308051066993e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.893880208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>233610.7865106589</v>
+        <v>275834.7380523391</v>
       </c>
     </row>
     <row r="12">
@@ -44602,28 +44602,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>186.0878972454515</v>
+        <v>220.2038286082776</v>
       </c>
       <c r="AB12" t="n">
-        <v>254.6136706297309</v>
+        <v>301.2925930089941</v>
       </c>
       <c r="AC12" t="n">
-        <v>230.3136992574346</v>
+        <v>272.5376507991148</v>
       </c>
       <c r="AD12" t="n">
-        <v>186087.8972454515</v>
+        <v>220203.8286082776</v>
       </c>
       <c r="AE12" t="n">
-        <v>254613.6706297309</v>
+        <v>301292.5930089941</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.93957483708606e-06</v>
+        <v>5.720928513167311e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.841796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>230313.6992574346</v>
+        <v>272537.6507991148</v>
       </c>
     </row>
     <row r="13">
@@ -44708,28 +44708,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>184.2939085789006</v>
+        <v>218.4098399417267</v>
       </c>
       <c r="AB13" t="n">
-        <v>252.159056190963</v>
+        <v>298.8379785702262</v>
       </c>
       <c r="AC13" t="n">
-        <v>228.093349775629</v>
+        <v>270.3173013173092</v>
       </c>
       <c r="AD13" t="n">
-        <v>184293.9085789006</v>
+        <v>218409.8399417266</v>
       </c>
       <c r="AE13" t="n">
-        <v>252159.056190963</v>
+        <v>298837.9785702262</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.950867367631965e-06</v>
+        <v>5.737327176134116e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>228093.3497756289</v>
+        <v>270317.3013173091</v>
       </c>
     </row>
     <row r="14">
@@ -44814,28 +44814,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>181.7024637112593</v>
+        <v>215.8183950740855</v>
       </c>
       <c r="AB14" t="n">
-        <v>248.6133269965792</v>
+        <v>295.2922493758424</v>
       </c>
       <c r="AC14" t="n">
-        <v>224.8860199990938</v>
+        <v>267.1099715407741</v>
       </c>
       <c r="AD14" t="n">
-        <v>181702.4637112593</v>
+        <v>215818.3950740854</v>
       </c>
       <c r="AE14" t="n">
-        <v>248613.3269965792</v>
+        <v>295292.2493758424</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.976489075593261e-06</v>
+        <v>5.774534226563001e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>224886.0199990938</v>
+        <v>267109.9715407741</v>
       </c>
     </row>
     <row r="15">
@@ -44920,28 +44920,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>180.1208931008306</v>
+        <v>214.2368244636567</v>
       </c>
       <c r="AB15" t="n">
-        <v>246.4493523134208</v>
+        <v>293.128274692684</v>
       </c>
       <c r="AC15" t="n">
-        <v>222.9285720225379</v>
+        <v>265.1525235642181</v>
       </c>
       <c r="AD15" t="n">
-        <v>180120.8931008306</v>
+        <v>214236.8244636567</v>
       </c>
       <c r="AE15" t="n">
-        <v>246449.3523134208</v>
+        <v>293128.274692684</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.987117339636465e-06</v>
+        <v>5.789968262296464e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>222928.5720225379</v>
+        <v>265152.5235642181</v>
       </c>
     </row>
     <row r="16">
@@ -45026,28 +45026,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>178.0516907766674</v>
+        <v>212.1676221394936</v>
       </c>
       <c r="AB16" t="n">
-        <v>243.6181784067384</v>
+        <v>290.2971007860015</v>
       </c>
       <c r="AC16" t="n">
-        <v>220.3676013799307</v>
+        <v>262.5915529216109</v>
       </c>
       <c r="AD16" t="n">
-        <v>178051.6907766674</v>
+        <v>212167.6221394936</v>
       </c>
       <c r="AE16" t="n">
-        <v>243618.1784067384</v>
+        <v>290297.1007860015</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.001351621837185e-06</v>
+        <v>5.810638845868067e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>220367.6013799307</v>
+        <v>262591.5529216109</v>
       </c>
     </row>
     <row r="17">
@@ -45132,28 +45132,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>176.39522808046</v>
+        <v>210.5111594432861</v>
       </c>
       <c r="AB17" t="n">
-        <v>241.3517330678119</v>
+        <v>288.030655447075</v>
       </c>
       <c r="AC17" t="n">
-        <v>218.3174624031747</v>
+        <v>260.5414139448549</v>
       </c>
       <c r="AD17" t="n">
-        <v>176395.22808046</v>
+        <v>210511.1594432861</v>
       </c>
       <c r="AE17" t="n">
-        <v>241351.7330678119</v>
+        <v>288030.655447075</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.011410514592362e-06</v>
+        <v>5.825246058258667e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.701822916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>218317.4624031747</v>
+        <v>260541.4139448549</v>
       </c>
     </row>
     <row r="18">
@@ -45238,28 +45238,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>175.9886489884919</v>
+        <v>210.104580351318</v>
       </c>
       <c r="AB18" t="n">
-        <v>240.7954336171778</v>
+        <v>287.474355996441</v>
       </c>
       <c r="AC18" t="n">
-        <v>217.8142553913378</v>
+        <v>260.038206933018</v>
       </c>
       <c r="AD18" t="n">
-        <v>175988.6489884919</v>
+        <v>210104.5803513181</v>
       </c>
       <c r="AE18" t="n">
-        <v>240795.4336171779</v>
+        <v>287474.355996441</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.011695200236376e-06</v>
+        <v>5.825659469930099e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.698567708333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>217814.2553913378</v>
+        <v>260038.206933018</v>
       </c>
     </row>
     <row r="19">
@@ -45344,28 +45344,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>175.8346217654245</v>
+        <v>209.9505531282506</v>
       </c>
       <c r="AB19" t="n">
-        <v>240.5846867753755</v>
+        <v>287.2636091546387</v>
       </c>
       <c r="AC19" t="n">
-        <v>217.6236219323319</v>
+        <v>259.8475734740122</v>
       </c>
       <c r="AD19" t="n">
-        <v>175834.6217654245</v>
+        <v>209950.5531282506</v>
       </c>
       <c r="AE19" t="n">
-        <v>240584.6867753755</v>
+        <v>287263.6091546387</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.011220724163019e-06</v>
+        <v>5.824970450477712e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.701822916666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>217623.6219323319</v>
+        <v>259847.5734740122</v>
       </c>
     </row>
     <row r="20">
@@ -45450,28 +45450,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>176.3701917073374</v>
+        <v>210.4861230701635</v>
       </c>
       <c r="AB20" t="n">
-        <v>241.3174771975788</v>
+        <v>287.996399576842</v>
       </c>
       <c r="AC20" t="n">
-        <v>218.2864758651182</v>
+        <v>260.5104274067984</v>
       </c>
       <c r="AD20" t="n">
-        <v>176370.1917073374</v>
+        <v>210486.1230701635</v>
       </c>
       <c r="AE20" t="n">
-        <v>241317.4771975788</v>
+        <v>287996.399576842</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.011505409807034e-06</v>
+        <v>5.825383862149144e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.701822916666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>218286.4758651182</v>
+        <v>260510.4274067984</v>
       </c>
     </row>
   </sheetData>
@@ -45747,28 +45747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8145371737169</v>
+        <v>137.3625339093325</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.8848503195896</v>
+        <v>187.945478901968</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.6754891663283</v>
+        <v>170.0082261787534</v>
       </c>
       <c r="AD2" t="n">
-        <v>108814.5371737169</v>
+        <v>137362.5339093325</v>
       </c>
       <c r="AE2" t="n">
-        <v>148884.8503195896</v>
+        <v>187945.478901968</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.65364132633129e-06</v>
+        <v>7.757342831503162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>134675.4891663283</v>
+        <v>170008.2261787534</v>
       </c>
     </row>
   </sheetData>
@@ -46044,28 +46044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.1416472361574</v>
+        <v>291.711552236484</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.0453725176675</v>
+        <v>399.132615175366</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.1645510003056</v>
+        <v>361.0399585691721</v>
       </c>
       <c r="AD2" t="n">
-        <v>244141.6472361574</v>
+        <v>291711.552236484</v>
       </c>
       <c r="AE2" t="n">
-        <v>334045.3725176675</v>
+        <v>399132.6151753661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.196180986377705e-06</v>
+        <v>4.86428900738968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>302164.5510003056</v>
+        <v>361039.9585691721</v>
       </c>
     </row>
     <row r="3">
@@ -46150,28 +46150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.4347147586747</v>
+        <v>218.0620787831819</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.1422487167459</v>
+        <v>298.3621564109659</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.8416551550887</v>
+        <v>269.8868909571079</v>
       </c>
       <c r="AD3" t="n">
-        <v>178434.7147586747</v>
+        <v>218062.0787831819</v>
       </c>
       <c r="AE3" t="n">
-        <v>244142.2487167459</v>
+        <v>298362.1564109659</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.925464582053058e-06</v>
+        <v>5.974190540761113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.665364583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>220841.6551550887</v>
+        <v>269886.8909571079</v>
       </c>
     </row>
     <row r="4">
@@ -46256,28 +46256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.6831207831702</v>
+        <v>197.3680333404127</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.6949552788467</v>
+        <v>270.0476504793315</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.0595069154669</v>
+        <v>244.2746817319211</v>
       </c>
       <c r="AD4" t="n">
-        <v>165683.1207831702</v>
+        <v>197368.0333404127</v>
       </c>
       <c r="AE4" t="n">
-        <v>226694.9552788467</v>
+        <v>270047.6504793316</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169813255983836e-06</v>
+        <v>6.346066405625316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>205059.5069154669</v>
+        <v>244274.6817319211</v>
       </c>
     </row>
     <row r="5">
@@ -46362,28 +46362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.6821013242018</v>
+        <v>181.4522652274648</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.8016545399395</v>
+        <v>248.2709943930737</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.2556720716335</v>
+        <v>224.5763591387999</v>
       </c>
       <c r="AD5" t="n">
-        <v>149682.1013242018</v>
+        <v>181452.2652274648</v>
       </c>
       <c r="AE5" t="n">
-        <v>204801.6545399395</v>
+        <v>248270.9943930737</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310381676187813e-06</v>
+        <v>6.559998415138728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.893880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>185255.6720716335</v>
+        <v>224576.3591387999</v>
       </c>
     </row>
     <row r="6">
@@ -46468,28 +46468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.4059365799256</v>
+        <v>176.1761004831886</v>
       </c>
       <c r="AB6" t="n">
-        <v>197.5825731688639</v>
+        <v>241.051913021998</v>
       </c>
       <c r="AC6" t="n">
-        <v>178.7255696945666</v>
+        <v>218.0462567617331</v>
       </c>
       <c r="AD6" t="n">
-        <v>144405.9365799256</v>
+        <v>176176.1004831886</v>
       </c>
       <c r="AE6" t="n">
-        <v>197582.5731688639</v>
+        <v>241051.913021998</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.389497136481055e-06</v>
+        <v>6.680404758039585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.750651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>178725.5696945666</v>
+        <v>218046.2567617331</v>
       </c>
     </row>
     <row r="7">
@@ -46574,28 +46574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.4716578065501</v>
+        <v>173.2418217098131</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.5677634998903</v>
+        <v>237.0371033530244</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.0939278255778</v>
+        <v>214.4146148927443</v>
       </c>
       <c r="AD7" t="n">
-        <v>141471.6578065501</v>
+        <v>173241.8217098131</v>
       </c>
       <c r="AE7" t="n">
-        <v>193567.7634998903</v>
+        <v>237037.1033530244</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.430047729075214e-06</v>
+        <v>6.742118973423379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.679036458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>175093.9278255778</v>
+        <v>214414.6148927443</v>
       </c>
     </row>
     <row r="8">
@@ -46680,28 +46680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.720873242684</v>
+        <v>173.4910371459471</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.9087510542176</v>
+        <v>237.3780909073517</v>
       </c>
       <c r="AC8" t="n">
-        <v>175.4023720062993</v>
+        <v>214.7230590734658</v>
       </c>
       <c r="AD8" t="n">
-        <v>141720.873242684</v>
+        <v>173491.0371459471</v>
       </c>
       <c r="AE8" t="n">
-        <v>193908.7510542176</v>
+        <v>237378.0909073518</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430674800094711e-06</v>
+        <v>6.743073316960241e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.679036458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>175402.3720062993</v>
+        <v>214723.0590734658</v>
       </c>
     </row>
   </sheetData>
@@ -46977,28 +46977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.0505856844154</v>
+        <v>372.0434520464905</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.0661103843128</v>
+        <v>509.046264488714</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.9257658143189</v>
+        <v>460.4636034568298</v>
       </c>
       <c r="AD2" t="n">
-        <v>315050.5856844154</v>
+        <v>372043.4520464905</v>
       </c>
       <c r="AE2" t="n">
-        <v>431066.1103843128</v>
+        <v>509046.264488714</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.742164291110438e-06</v>
+        <v>4.093806394962254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.943359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>389925.765814319</v>
+        <v>460463.6034568298</v>
       </c>
     </row>
     <row r="3">
@@ -47083,28 +47083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.9686933957175</v>
+        <v>249.6336675163929</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.866138287079</v>
+        <v>341.5597969559167</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.5336507032897</v>
+        <v>308.9618093167317</v>
       </c>
       <c r="AD3" t="n">
-        <v>216968.6933957175</v>
+        <v>249633.6675163929</v>
       </c>
       <c r="AE3" t="n">
-        <v>296866.138287079</v>
+        <v>341559.7969559167</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.575620434632666e-06</v>
+        <v>5.338081984624383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.16015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>268533.6507032897</v>
+        <v>308961.8093167316</v>
       </c>
     </row>
     <row r="4">
@@ -47189,28 +47189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.5410037630826</v>
+        <v>223.1206370291863</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.7066074243451</v>
+        <v>305.2834989709851</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.8251347158633</v>
+        <v>276.1476702973665</v>
       </c>
       <c r="AD4" t="n">
-        <v>190541.0037630826</v>
+        <v>223120.6370291863</v>
       </c>
       <c r="AE4" t="n">
-        <v>260706.6074243451</v>
+        <v>305283.4989709851</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.860683968931649e-06</v>
+        <v>5.763656383454857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.483072916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>235825.1347158633</v>
+        <v>276147.6702973665</v>
       </c>
     </row>
     <row r="5">
@@ -47295,28 +47295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.0765958644128</v>
+        <v>213.6562291305165</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.7569869971835</v>
+        <v>292.3338785438236</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.1114078873595</v>
+        <v>264.4339434688627</v>
       </c>
       <c r="AD5" t="n">
-        <v>181076.5958644128</v>
+        <v>213656.2291305165</v>
       </c>
       <c r="AE5" t="n">
-        <v>247756.9869971835</v>
+        <v>292333.8785438236</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.021176851814415e-06</v>
+        <v>6.003257924624855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>224111.4078873595</v>
+        <v>264433.9434688627</v>
       </c>
     </row>
     <row r="6">
@@ -47401,28 +47401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.7897964482117</v>
+        <v>207.4502205042238</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.2091577468403</v>
+        <v>283.8425437515567</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.4291960251121</v>
+        <v>256.7530097515037</v>
       </c>
       <c r="AD6" t="n">
-        <v>166789.7964482117</v>
+        <v>207450.2205042238</v>
       </c>
       <c r="AE6" t="n">
-        <v>228209.1577468403</v>
+        <v>283842.5437515567</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.114755774122234e-06</v>
+        <v>6.142962898473192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.958984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>206429.1960251121</v>
+        <v>256753.0097515037</v>
       </c>
     </row>
     <row r="7">
@@ -47507,28 +47507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.0939749925177</v>
+        <v>195.758859604642</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.152371783027</v>
+        <v>267.8459079823164</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.8550226164399</v>
+        <v>242.2830704486553</v>
       </c>
       <c r="AD7" t="n">
-        <v>163093.9749925177</v>
+        <v>195758.859604642</v>
       </c>
       <c r="AE7" t="n">
-        <v>223152.371783027</v>
+        <v>267845.9079823163</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.170299392524296e-06</v>
+        <v>6.22588456037027e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.854817708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>201855.0226164399</v>
+        <v>242283.0704486553</v>
       </c>
     </row>
     <row r="8">
@@ -47613,28 +47613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.2927744419181</v>
+        <v>191.9576590540424</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.9514014925664</v>
+        <v>262.6449376918557</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.1504256308916</v>
+        <v>237.5784734631069</v>
       </c>
       <c r="AD8" t="n">
-        <v>159292.7744419181</v>
+        <v>191957.6590540424</v>
       </c>
       <c r="AE8" t="n">
-        <v>217951.4014925664</v>
+        <v>262644.9376918557</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.211957106325841e-06</v>
+        <v>6.288075806793078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.776692708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>197150.4256308916</v>
+        <v>237578.473463107</v>
       </c>
     </row>
     <row r="9">
@@ -47719,28 +47719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.4027079349692</v>
+        <v>189.0675925470935</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.9970849970253</v>
+        <v>258.6906211963146</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.5735035517655</v>
+        <v>234.0015513839809</v>
       </c>
       <c r="AD9" t="n">
-        <v>156402.7079349692</v>
+        <v>189067.5925470935</v>
       </c>
       <c r="AE9" t="n">
-        <v>213997.0849970253</v>
+        <v>258690.6211963146</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.244055682902395e-06</v>
+        <v>6.335996115027079e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.718098958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>193573.5035517655</v>
+        <v>234001.5513839809</v>
       </c>
     </row>
     <row r="10">
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>153.5237663766205</v>
+        <v>186.1886509887448</v>
       </c>
       <c r="AB10" t="n">
-        <v>210.0579901469569</v>
+        <v>254.7515263462462</v>
       </c>
       <c r="AC10" t="n">
-        <v>190.0103503856321</v>
+        <v>230.4383982178475</v>
       </c>
       <c r="AD10" t="n">
-        <v>153523.7663766205</v>
+        <v>186188.6509887448</v>
       </c>
       <c r="AE10" t="n">
-        <v>210057.9901469569</v>
+        <v>254751.5263462462</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.266293254762639e-06</v>
+        <v>6.369194823866307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.679036458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>190010.3503856321</v>
+        <v>230438.3982178475</v>
       </c>
     </row>
     <row r="11">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>153.1960652554927</v>
+        <v>185.860949867617</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.609615015877</v>
+        <v>254.3031512151663</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.6047675477638</v>
+        <v>230.0328153799792</v>
       </c>
       <c r="AD11" t="n">
-        <v>153196.0652554927</v>
+        <v>185860.949867617</v>
       </c>
       <c r="AE11" t="n">
-        <v>209609.6150158769</v>
+        <v>254303.1512151663</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278066086923946e-06</v>
+        <v>6.386770610898839e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH11" t="n">
-        <v>189604.7675477638</v>
+        <v>230032.8153799792</v>
       </c>
     </row>
     <row r="12">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>153.8837083210992</v>
+        <v>186.5485929332235</v>
       </c>
       <c r="AB12" t="n">
-        <v>210.5504785949102</v>
+        <v>255.2440147941996</v>
       </c>
       <c r="AC12" t="n">
-        <v>190.4558364273248</v>
+        <v>230.8838842595402</v>
       </c>
       <c r="AD12" t="n">
-        <v>153883.7083210992</v>
+        <v>186548.5929332235</v>
       </c>
       <c r="AE12" t="n">
-        <v>210550.4785949102</v>
+        <v>255244.0147941996</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.276657371964474e-06</v>
+        <v>6.384667525271016e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.659505208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>190455.8364273248</v>
+        <v>230883.8842595402</v>
       </c>
     </row>
   </sheetData>
